--- a/Unity/Assets/Config/Excel/PetConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PetConfig.xlsx
@@ -1,40 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBFD7D4-35CE-4101-9713-DD6CC6F91E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
     <author>51Gamer_D01</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -42,7 +49,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -51,7 +58,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>用于宠物界面展示的位置</t>
@@ -60,7 +66,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>,</t>
         </r>
@@ -68,7 +74,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">在摄像机前修正位置
@@ -76,14 +81,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -91,24 +96,15 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0</t>
+0</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：普通
@@ -118,7 +114,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -126,7 +122,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：变异
@@ -136,7 +131,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>2</t>
         </r>
@@ -144,21 +139,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：神兽</t>
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="J3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -167,31 +160,20 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>此字段是玩家用来召唤宠物时,宠物的当前等级</t>
+此字段是玩家用来召唤宠物时,宠物的当前等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="O3" authorId="2">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者</t>
@@ -201,7 +183,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">:
 </t>
@@ -211,7 +193,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">怪物类型
@@ -222,7 +203,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>0</t>
         </r>
@@ -231,7 +212,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：通用
@@ -242,7 +222,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -251,7 +231,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：野兽
@@ -262,7 +241,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>2</t>
         </r>
@@ -271,7 +250,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：人物
@@ -282,7 +260,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>3</t>
         </r>
@@ -291,41 +269,28 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：恶魔</t>
         </r>
       </text>
     </comment>
-    <comment ref="AY3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="AY3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>当与玩家超过这个范围就返回</t>
+          <t>Administrator:
+当与玩家超过这个范围就返回</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -333,14 +298,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="AZ3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -349,31 +313,20 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>以后改宠物主动攻击模式和被动攻击模式可能会用到</t>
+以后改宠物主动攻击模式和被动攻击模式可能会用到</t>
         </r>
       </text>
     </comment>
-    <comment ref="BF3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="BF3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -382,20 +335,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> ; 号间隔符</t>
+ ; 号间隔符</t>
         </r>
       </text>
     </comment>
@@ -404,7 +347,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="187">
   <si>
     <t>Id</t>
   </si>
@@ -676,6 +619,9 @@
     <t>Base_MoveSpeed</t>
   </si>
   <si>
+    <t>Base_ActSpeed</t>
+  </si>
+  <si>
     <t>ActDistance</t>
   </si>
   <si>
@@ -754,27 +700,45 @@
     <t>10000131,2</t>
   </si>
   <si>
+    <t>80001010,0.2;80001014,0.2;80001015,0.2</t>
+  </si>
+  <si>
     <t>10101,10102</t>
   </si>
   <si>
+    <t>90,10</t>
+  </si>
+  <si>
     <t>小松鼠</t>
   </si>
   <si>
     <t>80001002;80001013</t>
   </si>
   <si>
+    <t>80001009,0.2;80001025,0.2</t>
+  </si>
+  <si>
     <t>20101,20102</t>
   </si>
   <si>
     <t>小灰狼</t>
   </si>
   <si>
+    <t>80001012,0.2;80001004,0.2;80001007,0.2</t>
+  </si>
+  <si>
     <t>30101,30102</t>
   </si>
   <si>
     <t>仙人掌</t>
   </si>
   <si>
+    <t>80002007,0.2;80001023,0.2;80003001,0.1</t>
+  </si>
+  <si>
+    <t>40101,40102</t>
+  </si>
+  <si>
     <t>团团</t>
   </si>
   <si>
@@ -784,24 +748,51 @@
     <t>80001005;80001019</t>
   </si>
   <si>
+    <t>80001017,0.2;80001008,0.2;80001021,0.2</t>
+  </si>
+  <si>
+    <t>50101,50102</t>
+  </si>
+  <si>
     <t>企鹅</t>
   </si>
   <si>
+    <t>80001015,0.2;80001010,0.2;80002006,0.2</t>
+  </si>
+  <si>
+    <t>60101,60102</t>
+  </si>
+  <si>
     <t>蛇蛇</t>
   </si>
   <si>
+    <t>80001006,0.2;80002018,0.2;80001022,0.2;80003002,0.1</t>
+  </si>
+  <si>
+    <t>70101,70102</t>
+  </si>
+  <si>
     <t>萝卜头</t>
   </si>
   <si>
     <t>80001008;80001020</t>
   </si>
   <si>
+    <t>80001011,0.2;80002015,0.2;80001024,0.2</t>
+  </si>
+  <si>
     <t>80101,80102</t>
   </si>
   <si>
     <t>雷霆猪</t>
   </si>
   <si>
+    <t>80002001,0.2;80001014,0.2;80001028,0.2;80002022,0.2</t>
+  </si>
+  <si>
+    <t>90101,90102</t>
+  </si>
+  <si>
     <t>乌贼女士</t>
   </si>
   <si>
@@ -811,200 +802,125 @@
     <t>80001010;80001001</t>
   </si>
   <si>
+    <t>80001002,0.2;80002019,0.2;80003003,0.1</t>
+  </si>
+  <si>
+    <t>100101,100102</t>
+  </si>
+  <si>
     <t>魔法精灵</t>
   </si>
   <si>
     <t>80001011;80001003</t>
   </si>
   <si>
+    <t>80001015,0.2;80002002,0.2;80001027,0.1;80002021,0.1</t>
+  </si>
+  <si>
+    <t>110101,110102</t>
+  </si>
+  <si>
     <t>魔法娃娃</t>
   </si>
   <si>
     <t>80001012;80002025</t>
   </si>
   <si>
+    <t>80002010,0.2;80002003,0.2;80001026,0.1;80002027,0.1</t>
+  </si>
+  <si>
+    <t>120101,120102</t>
+  </si>
+  <si>
     <t>淘气包</t>
   </si>
   <si>
+    <t>80001006;80002004</t>
+  </si>
+  <si>
+    <t>80002016,0.2;80002023,0.2;80003004,0.1</t>
+  </si>
+  <si>
+    <t>130101,130102</t>
+  </si>
+  <si>
     <t>光明天使</t>
   </si>
   <si>
+    <t>80001014;80002009</t>
+  </si>
+  <si>
+    <t>80002013,0.2;80002003,0.2;80003005,0.1</t>
+  </si>
+  <si>
+    <t>140101,140102</t>
+  </si>
+  <si>
+    <t>铁甲勇士</t>
+  </si>
+  <si>
+    <t>80002008;80001016</t>
+  </si>
+  <si>
+    <t>80002017,0.2;80002018,0.2;80003006,0.1</t>
+  </si>
+  <si>
+    <t>910101,910102</t>
+  </si>
+  <si>
+    <t>灵狐之妖</t>
+  </si>
+  <si>
+    <t>80002024;80001020</t>
+  </si>
+  <si>
+    <t>80002014,0.2;80001026,0.2;80003007,0.1</t>
+  </si>
+  <si>
+    <t>920101,920102</t>
+  </si>
+  <si>
+    <t>爱心之灵</t>
+  </si>
+  <si>
+    <t>80002005;80002020</t>
+  </si>
+  <si>
+    <t>80002026,0.2;80001003,0.2;80003008,0.1</t>
+  </si>
+  <si>
+    <t>930101,930102</t>
+  </si>
+  <si>
     <t>神兽:精灵麋鹿</t>
   </si>
   <si>
+    <t>80004005;80004006;80004004;80002008;80002013;80002016;80002017;80002010;80002019;80002023</t>
+  </si>
+  <si>
     <t>神兽:幽光晴晴</t>
   </si>
   <si>
+    <t>80004004;80004008;80004009;80002002;80002003;80002020;80002021;80002024;80002025;80002027</t>
+  </si>
+  <si>
     <t>神兽:仙界魔龙</t>
   </si>
   <si>
-    <t>double</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base_ActSpeed</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁甲勇士</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱心之灵</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>80001010,0.2;80001014,0.2;80001015,0.2</t>
-  </si>
-  <si>
-    <t>80001009,0.2;80001025,0.2</t>
-  </si>
-  <si>
-    <t>80001012,0.2;80001004,0.2;80001007,0.2</t>
-  </si>
-  <si>
-    <t>80002007,0.2;80001023,0.2;80003001,0.1</t>
-  </si>
-  <si>
-    <t>80001017,0.2;80001008,0.2;80001021,0.2</t>
-  </si>
-  <si>
-    <t>80001015,0.2;80001010,0.2;80002006,0.2</t>
-  </si>
-  <si>
-    <t>80001006,0.2;80002018,0.2;80001022,0.2;80003002,0.1</t>
-  </si>
-  <si>
-    <t>80001011,0.2;80002015,0.2;80001024,0.2</t>
-  </si>
-  <si>
-    <t>80002001,0.2;80001014,0.2;80001028,0.2;80002022,0.2</t>
-  </si>
-  <si>
-    <t>80001002,0.2;80002019,0.2;80003003,0.1</t>
-  </si>
-  <si>
-    <t>80001015,0.2;80002002,0.2;80001027,0.1;80002021,0.1</t>
-  </si>
-  <si>
-    <t>80002010,0.2;80002003,0.2;80001026,0.1;80002027,0.1</t>
-  </si>
-  <si>
-    <t>80002017,0.2;80002018,0.2;80003006,0.1</t>
-  </si>
-  <si>
-    <t>80002008;80001016</t>
-  </si>
-  <si>
-    <t>80004005;80004006;80004004;80002008;80002013;80002016;80002017;80002010;80002019;80002023</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>80004004;80004008;80004009;80002002;80002003;80002020;80002021;80002024;80002025;80002027</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>80004004;80004010;80004013;80002001;80002002;80002006;80002011;80002018;80002022;80002028</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>90,10</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵狐之妖</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>80002005;80002020</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>80002026,0.2;80001003,0.2;80003008,0.1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>80002014,0.2;80001026,0.2;80003007,0.1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>80002024;80001020</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>80001014;80002009</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>80002013,0.2;80002003,0.2;80003005,0.1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>80001006;80002004</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>80002016,0.2;80002023,0.2;80003004,0.1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>40101,40102</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>50101,50102</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>60101,60102</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>70101,70102</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>90101,90102</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>100101,100102</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>110101,110102</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>120101,120102</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>130101,130102</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>140101,140102</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>910101,910102</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>920101,920102</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>930101,930102</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1015,7 +931,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1023,82 +938,226 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1125,31 +1184,259 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79976805932798245"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79976805932798245"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799768059327982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799768059327982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799768059327982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799768059327982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799768059327982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799768059327982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,50 +1446,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79976805932798245"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79976805932798245"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79976805932798245"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79976805932798245"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1307,172 +1552,399 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="48" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="48" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="48" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="48" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1513,77 +1985,127 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="58">
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+  <cellStyles count="106">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="常规 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="常规 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="常规 2 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="常规 2 3 2 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="常规 2 3 2 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="常规 2 3 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="常规 2 3 3 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="常规 2 3 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="常规 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="常规 4" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="常规 5" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="常规 5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="常规 5 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="常规 5 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="常规 6" xfId="4" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="注释 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="注释 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="注释 2 2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="注释 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="49"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="50"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="51"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="52"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="54"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="55"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="56"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="57"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="58"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="59"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="60"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="61"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="62"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="63"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="64"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="65"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="66"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="67"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="68"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="69"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="70"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="71"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="72"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="73"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="74"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="75"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="76"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="77"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="78"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="79"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="80"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="81"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="82"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="83"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="84"/>
+    <cellStyle name="常规 2" xfId="85"/>
+    <cellStyle name="常规 2 2" xfId="86"/>
+    <cellStyle name="常规 2 3" xfId="87"/>
+    <cellStyle name="常规 2 3 2" xfId="88"/>
+    <cellStyle name="常规 2 3 2 2" xfId="89"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="90"/>
+    <cellStyle name="常规 2 3 2 3" xfId="91"/>
+    <cellStyle name="常规 2 3 3" xfId="92"/>
+    <cellStyle name="常规 2 3 3 2" xfId="93"/>
+    <cellStyle name="常规 2 3 4" xfId="94"/>
+    <cellStyle name="常规 3" xfId="95"/>
+    <cellStyle name="常规 4" xfId="96"/>
+    <cellStyle name="常规 5" xfId="97"/>
+    <cellStyle name="常规 5 2" xfId="98"/>
+    <cellStyle name="常规 5 2 2" xfId="99"/>
+    <cellStyle name="常规 5 3" xfId="100"/>
+    <cellStyle name="常规 6" xfId="101"/>
+    <cellStyle name="注释 2" xfId="102"/>
+    <cellStyle name="注释 2 2" xfId="103"/>
+    <cellStyle name="注释 2 2 2" xfId="104"/>
+    <cellStyle name="注释 2 3" xfId="105"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
@@ -1656,9 +2178,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2729,17 +3248,18 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:JP25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:BI25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AY1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BI20" sqref="BI20"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2768,13 +3288,13 @@
     <col min="62" max="276" width="8.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:61" s="1" customFormat="1" ht="14.25">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="3:3">
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="3:61" ht="13.5" customHeight="1">
+    <row r="2" customHeight="1" spans="4:4">
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="3" ht="20.1" customHeight="1" spans="3:61">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2953,7 +3473,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="4" ht="20.1" customHeight="1" spans="3:61">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -3075,248 +3595,248 @@
         <v>89</v>
       </c>
       <c r="AQ4" s="9" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="AR4" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AS4" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AT4" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AU4" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AV4" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AW4" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AX4" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AY4" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AZ4" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BA4" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BB4" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BC4" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="BD4" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BE4" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BF4" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="BG4" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="BH4" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BI4" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="5" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="5" ht="20.1" customHeight="1" spans="3:61">
       <c r="C5" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="H5" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="J5" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="O5" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="P5" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AB5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AW5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AX5" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ5" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC5" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AC5" s="5" t="s">
+      <c r="BD5" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="BF5" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG5" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH5" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AD5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI5" s="5" t="s">
+      <c r="BI5" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AJ5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AM5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AN5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AO5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AQ5" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="AR5" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AU5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AV5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AX5" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AY5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AZ5" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="BA5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="BB5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="BC5" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="BD5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="BE5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="BF5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="BG5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="BH5" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="BI5" s="5" t="s">
-        <v>110</v>
-      </c>
     </row>
-    <row r="6" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="6" ht="20.1" customHeight="1" spans="3:61">
       <c r="C6" s="7">
         <v>1000101</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E6" s="7">
         <v>1000101</v>
@@ -3328,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I6" s="8">
         <v>0</v>
@@ -3343,7 +3863,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N6" s="7">
         <v>0</v>
@@ -3469,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="BC6" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BD6" s="8">
         <v>0</v>
@@ -3477,28 +3997,28 @@
       <c r="BE6" s="8">
         <v>70000011</v>
       </c>
-      <c r="BF6" s="17">
+      <c r="BF6" s="8">
         <v>80001001</v>
       </c>
       <c r="BG6" s="14" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="BH6" s="15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="BI6" s="15" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="7" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="7" ht="20.1" customHeight="1" spans="3:61">
       <c r="C7" s="7">
         <v>1000201</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E7" s="7">
-        <v>1000201</v>
+        <v>1000101</v>
       </c>
       <c r="F7" s="7">
         <v>1000201</v>
@@ -3507,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I7" s="8">
         <v>0</v>
@@ -3522,7 +4042,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N7" s="7">
         <v>0</v>
@@ -3648,7 +4168,7 @@
         <v>1</v>
       </c>
       <c r="BC7" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BD7" s="8">
         <v>0</v>
@@ -3657,27 +4177,27 @@
         <v>70000012</v>
       </c>
       <c r="BF7" s="8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="BG7" s="14" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="BH7" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="BI7" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="BI7" s="15" t="s">
-        <v>165</v>
-      </c>
     </row>
-    <row r="8" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="8" ht="20.1" customHeight="1" spans="3:61">
       <c r="C8" s="7">
         <v>1000301</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E8" s="7">
-        <v>1000301</v>
+        <v>1000101</v>
       </c>
       <c r="F8" s="7">
         <v>1000301</v>
@@ -3686,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I8" s="8">
         <v>0</v>
@@ -3701,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N8" s="7">
         <v>0</v>
@@ -3827,7 +4347,7 @@
         <v>1</v>
       </c>
       <c r="BC8" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BD8" s="8">
         <v>0</v>
@@ -3835,28 +4355,28 @@
       <c r="BE8" s="8">
         <v>70000011</v>
       </c>
-      <c r="BF8" s="17">
+      <c r="BF8" s="8">
         <v>80001018</v>
       </c>
       <c r="BG8" s="14" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="BH8" s="15" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="BI8" s="15" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="9" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="9" ht="20.1" customHeight="1" spans="3:61">
       <c r="C9" s="7">
         <v>1000401</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E9" s="7">
-        <v>1000401</v>
+        <v>1000101</v>
       </c>
       <c r="F9" s="7">
         <v>1000401</v>
@@ -3865,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I9" s="8">
         <v>0</v>
@@ -3880,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N9" s="7">
         <v>0</v>
@@ -3928,7 +4448,7 @@
         <v>0.95</v>
       </c>
       <c r="AC9" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AD9" s="8">
         <v>5000</v>
@@ -4006,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="BC9" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BD9" s="8">
         <v>0</v>
@@ -4018,24 +4538,24 @@
         <v>80001004</v>
       </c>
       <c r="BG9" s="14" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="BH9" s="15" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="BI9" s="15" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="10" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="10" ht="20.1" customHeight="1" spans="3:61">
       <c r="C10" s="7">
         <v>1000501</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E10" s="7">
-        <v>1000501</v>
+        <v>1000101</v>
       </c>
       <c r="F10" s="7">
         <v>1000501</v>
@@ -4044,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I10" s="8">
         <v>0</v>
@@ -4059,7 +4579,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N10" s="7">
         <v>0</v>
@@ -4107,7 +4627,7 @@
         <v>0.95</v>
       </c>
       <c r="AC10" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AD10" s="8">
         <v>5000</v>
@@ -4149,7 +4669,7 @@
         <v>6</v>
       </c>
       <c r="AQ10" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AR10" s="8">
         <v>6</v>
@@ -4185,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="BC10" s="8" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="BD10" s="8">
         <v>0</v>
@@ -4193,28 +4713,28 @@
       <c r="BE10" s="8">
         <v>70000012</v>
       </c>
-      <c r="BF10" s="17" t="s">
-        <v>125</v>
+      <c r="BF10" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="BG10" s="14" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="BH10" s="15" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="BI10" s="15" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="11" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="11" ht="20.1" customHeight="1" spans="3:61">
       <c r="C11" s="7">
         <v>1000601</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E11" s="7">
-        <v>1000601</v>
+        <v>1000101</v>
       </c>
       <c r="F11" s="7">
         <v>1000601</v>
@@ -4223,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I11" s="8">
         <v>0</v>
@@ -4238,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N11" s="7">
         <v>0</v>
@@ -4286,7 +4806,7 @@
         <v>0.95</v>
       </c>
       <c r="AC11" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AD11" s="8">
         <v>5000</v>
@@ -4364,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="BC11" s="8" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="BD11" s="8">
         <v>0</v>
@@ -4376,24 +4896,24 @@
         <v>80001006</v>
       </c>
       <c r="BG11" s="14" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="BH11" s="15" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="BI11" s="15" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="12" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="12" ht="20.1" customHeight="1" spans="3:61">
       <c r="C12" s="7">
         <v>1000701</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E12" s="7">
-        <v>1000701</v>
+        <v>1000101</v>
       </c>
       <c r="F12" s="7">
         <v>1000701</v>
@@ -4402,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I12" s="8">
         <v>0</v>
@@ -4417,7 +4937,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N12" s="7">
         <v>0</v>
@@ -4465,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="8">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AD12" s="8">
         <v>5000</v>
@@ -4543,7 +5063,7 @@
         <v>1</v>
       </c>
       <c r="BC12" s="8" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="BD12" s="8">
         <v>0</v>
@@ -4551,28 +5071,28 @@
       <c r="BE12" s="8">
         <v>70000011</v>
       </c>
-      <c r="BF12" s="17">
+      <c r="BF12" s="8">
         <v>80001007</v>
       </c>
       <c r="BG12" s="14" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="BH12" s="15" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="BI12" s="15" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="13" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="13" ht="20.1" customHeight="1" spans="3:61">
       <c r="C13" s="7">
         <v>1000801</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E13" s="7">
-        <v>1000801</v>
+        <v>1000101</v>
       </c>
       <c r="F13" s="7">
         <v>1000801</v>
@@ -4581,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I13" s="8">
         <v>0</v>
@@ -4596,7 +5116,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N13" s="7">
         <v>0</v>
@@ -4644,7 +5164,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="8">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AD13" s="8">
         <v>5000</v>
@@ -4722,7 +5242,7 @@
         <v>1</v>
       </c>
       <c r="BC13" s="8" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="BD13" s="8">
         <v>0</v>
@@ -4731,27 +5251,27 @@
         <v>70000011</v>
       </c>
       <c r="BF13" s="8" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="BG13" s="14" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="BH13" s="15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="BI13" s="15" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="14" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="14" ht="20.1" customHeight="1" spans="3:61">
       <c r="C14" s="7">
         <v>1000901</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E14" s="7">
-        <v>1000901</v>
+        <v>1000101</v>
       </c>
       <c r="F14" s="7">
         <v>1000901</v>
@@ -4760,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I14" s="8">
         <v>0</v>
@@ -4775,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N14" s="7">
         <v>0</v>
@@ -4823,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="8">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AD14" s="8">
         <v>5000</v>
@@ -4901,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="BC14" s="8" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="BD14" s="8">
         <v>0</v>
@@ -4913,24 +5433,24 @@
         <v>80001009</v>
       </c>
       <c r="BG14" s="14" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="BH14" s="15" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="BI14" s="15" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="15" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="15" ht="20.1" customHeight="1" spans="3:61">
       <c r="C15" s="7">
         <v>1001001</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="E15" s="7">
-        <v>1001001</v>
+        <v>1000101</v>
       </c>
       <c r="F15" s="7">
         <v>1001001</v>
@@ -4939,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I15" s="8">
         <v>0</v>
@@ -4954,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N15" s="7">
         <v>0</v>
@@ -5080,7 +5600,7 @@
         <v>1</v>
       </c>
       <c r="BC15" s="8" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="BD15" s="8">
         <v>0</v>
@@ -5089,27 +5609,27 @@
         <v>70000011</v>
       </c>
       <c r="BF15" s="8" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="BG15" s="14" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="BH15" s="15" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="BI15" s="15" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="16" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="16" ht="20.1" customHeight="1" spans="3:61">
       <c r="C16" s="7">
         <v>1001101</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="E16" s="7">
-        <v>1001101</v>
+        <v>1000101</v>
       </c>
       <c r="F16" s="7">
         <v>1001101</v>
@@ -5118,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I16" s="8">
         <v>0</v>
@@ -5133,7 +5653,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N16" s="7">
         <v>0</v>
@@ -5223,7 +5743,7 @@
         <v>6</v>
       </c>
       <c r="AQ16" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AR16" s="8">
         <v>6</v>
@@ -5259,7 +5779,7 @@
         <v>1</v>
       </c>
       <c r="BC16" s="8" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="BD16" s="8">
         <v>0</v>
@@ -5268,27 +5788,27 @@
         <v>70000012</v>
       </c>
       <c r="BF16" s="8" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="BG16" s="14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="BH16" s="15" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="BI16" s="15" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="17" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="17" ht="20.1" customHeight="1" spans="3:61">
       <c r="C17" s="7">
         <v>1001201</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="E17" s="7">
-        <v>1001201</v>
+        <v>1000101</v>
       </c>
       <c r="F17" s="7">
         <v>1001201</v>
@@ -5297,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I17" s="8">
         <v>0</v>
@@ -5312,7 +5832,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N17" s="7">
         <v>0</v>
@@ -5402,7 +5922,7 @@
         <v>6</v>
       </c>
       <c r="AQ17" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AR17" s="8">
         <v>6</v>
@@ -5438,7 +5958,7 @@
         <v>1</v>
       </c>
       <c r="BC17" s="8" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="BD17" s="8">
         <v>0</v>
@@ -5447,27 +5967,27 @@
         <v>70000012</v>
       </c>
       <c r="BF17" s="8" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="BG17" s="14" t="s">
         <v>159</v>
       </c>
       <c r="BH17" s="15" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="BI17" s="15" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="18" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="18" ht="20.1" customHeight="1" spans="3:61">
       <c r="C18" s="7">
         <v>1001301</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="E18" s="7">
-        <v>1001301</v>
+        <v>1000101</v>
       </c>
       <c r="F18" s="7">
         <v>1001301</v>
@@ -5476,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I18" s="8">
         <v>0</v>
@@ -5491,7 +6011,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N18" s="7">
         <v>0</v>
@@ -5617,7 +6137,7 @@
         <v>1</v>
       </c>
       <c r="BC18" s="8" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="BD18" s="8">
         <v>0</v>
@@ -5626,27 +6146,27 @@
         <v>70000011</v>
       </c>
       <c r="BF18" s="8" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="BG18" s="14" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="BH18" s="15" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="BI18" s="15" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="19" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="19" ht="20.1" customHeight="1" spans="3:61">
       <c r="C19" s="7">
         <v>1001401</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E19" s="7">
-        <v>1001401</v>
+        <v>1000101</v>
       </c>
       <c r="F19" s="7">
         <v>1001401</v>
@@ -5655,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I19" s="8">
         <v>0</v>
@@ -5670,7 +6190,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N19" s="7">
         <v>0</v>
@@ -5760,7 +6280,7 @@
         <v>6</v>
       </c>
       <c r="AQ19" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AR19" s="8">
         <v>6</v>
@@ -5796,7 +6316,7 @@
         <v>1</v>
       </c>
       <c r="BC19" s="8" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="BD19" s="8">
         <v>0</v>
@@ -5805,27 +6325,27 @@
         <v>70000012</v>
       </c>
       <c r="BF19" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="BG19" s="14" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="BH19" s="15" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="BI19" s="15" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="20" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="20" ht="20.1" customHeight="1" spans="3:61">
       <c r="C20" s="7">
         <v>1009101</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="E20" s="7">
-        <v>1009101</v>
+        <v>1000101</v>
       </c>
       <c r="F20" s="7">
         <v>1009101</v>
@@ -5834,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I20" s="8">
         <v>0</v>
@@ -5849,7 +6369,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N20" s="7">
         <v>0</v>
@@ -5975,7 +6495,7 @@
         <v>1</v>
       </c>
       <c r="BC20" s="8" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="BD20" s="8">
         <v>0</v>
@@ -5984,27 +6504,27 @@
         <v>70000011</v>
       </c>
       <c r="BF20" s="8" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="BG20" s="14" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="BH20" s="15" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="BI20" s="15" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="21" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="21" ht="20.1" customHeight="1" spans="3:61">
       <c r="C21" s="7">
         <v>1009201</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E21" s="7">
-        <v>1009201</v>
+        <v>1000101</v>
       </c>
       <c r="F21" s="7">
         <v>1009201</v>
@@ -6013,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I21" s="8">
         <v>0</v>
@@ -6028,7 +6548,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N21" s="7">
         <v>0</v>
@@ -6154,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="BC21" s="8" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="BD21" s="8">
         <v>0</v>
@@ -6163,27 +6683,27 @@
         <v>70000011</v>
       </c>
       <c r="BF21" s="8" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="BG21" s="14" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="BH21" s="15" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="BI21" s="15" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="22" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="22" ht="20.1" customHeight="1" spans="3:61">
       <c r="C22" s="7">
         <v>1009301</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="E22" s="7">
-        <v>1009301</v>
+        <v>1000101</v>
       </c>
       <c r="F22" s="7">
         <v>1009301</v>
@@ -6192,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I22" s="8">
         <v>0</v>
@@ -6207,7 +6727,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N22" s="7">
         <v>0</v>
@@ -6297,7 +6817,7 @@
         <v>6</v>
       </c>
       <c r="AQ22" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AR22" s="8">
         <v>6</v>
@@ -6333,7 +6853,7 @@
         <v>1</v>
       </c>
       <c r="BC22" s="8" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="BD22" s="8">
         <v>0</v>
@@ -6342,27 +6862,27 @@
         <v>70000012</v>
       </c>
       <c r="BF22" s="8" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="BG22" s="14" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="BH22" s="15" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="BI22" s="15" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="23" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="23" ht="20.1" customHeight="1" spans="3:61">
       <c r="C23" s="7">
         <v>2000001</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="E23" s="7">
-        <v>2000001</v>
+        <v>1000101</v>
       </c>
       <c r="F23" s="7">
         <v>2000001</v>
@@ -6371,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I23" s="8">
         <v>2</v>
@@ -6386,7 +6906,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N23" s="7">
         <v>0</v>
@@ -6518,8 +7038,8 @@
       <c r="BE23" s="8">
         <v>70000011</v>
       </c>
-      <c r="BF23" s="18" t="s">
-        <v>162</v>
+      <c r="BF23" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="BG23" s="8">
         <v>0</v>
@@ -6527,19 +7047,19 @@
       <c r="BH23" s="15">
         <v>200001</v>
       </c>
-      <c r="BI23" s="16">
+      <c r="BI23" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="24" ht="20.1" customHeight="1" spans="3:61">
       <c r="C24" s="7">
         <v>2000002</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="E24" s="7">
-        <v>2000002</v>
+        <v>1000101</v>
       </c>
       <c r="F24" s="7">
         <v>2000002</v>
@@ -6548,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I24" s="8">
         <v>2</v>
@@ -6563,7 +7083,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N24" s="7">
         <v>0</v>
@@ -6653,7 +7173,7 @@
         <v>6</v>
       </c>
       <c r="AQ24" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AR24" s="8">
         <v>6</v>
@@ -6695,8 +7215,8 @@
       <c r="BE24" s="8">
         <v>70000012</v>
       </c>
-      <c r="BF24" s="17" t="s">
-        <v>163</v>
+      <c r="BF24" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="BG24" s="8">
         <v>0</v>
@@ -6704,19 +7224,19 @@
       <c r="BH24" s="15">
         <v>200002</v>
       </c>
-      <c r="BI24" s="16">
+      <c r="BI24" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="25" ht="20.1" customHeight="1" spans="3:61">
       <c r="C25" s="7">
         <v>2000003</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="E25" s="7">
-        <v>2000003</v>
+        <v>1000101</v>
       </c>
       <c r="F25" s="7">
         <v>2000003</v>
@@ -6725,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I25" s="8">
         <v>2</v>
@@ -6740,7 +7260,7 @@
         <v>1</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N25" s="7">
         <v>0</v>
@@ -6872,26 +7392,25 @@
       <c r="BE25" s="8">
         <v>70000011</v>
       </c>
-      <c r="BF25" s="17" t="s">
-        <v>164</v>
+      <c r="BF25" s="18" t="s">
+        <v>186</v>
       </c>
       <c r="BG25" s="8">
         <v>0</v>
       </c>
-      <c r="BH25" s="16">
+      <c r="BH25" s="17">
         <v>200003</v>
       </c>
-      <c r="BI25" s="16">
+      <c r="BI25" s="17">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/PetConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PetConfig.xlsx
@@ -1,47 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mengjing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C96033F-E497-4722-B147-2DA6BDD1D0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
     <author>51Gamer_D01</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -49,7 +42,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -58,6 +51,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>用于宠物界面展示的位置</t>
@@ -66,7 +60,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>,</t>
         </r>
@@ -74,6 +68,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">在摄像机前修正位置
@@ -81,14 +76,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -96,7 +91,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0</t>
@@ -105,6 +100,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：普通
@@ -114,7 +110,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>1</t>
         </r>
@@ -122,6 +118,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：变异
@@ -131,7 +128,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>2</t>
         </r>
@@ -139,19 +136,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：神兽</t>
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1">
+    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -160,6 +159,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -167,13 +167,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者</t>
@@ -183,7 +184,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">:
 </t>
@@ -193,6 +194,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">怪物类型
@@ -203,7 +205,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>0</t>
         </r>
@@ -212,6 +214,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：通用
@@ -222,7 +225,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>1</t>
         </r>
@@ -231,6 +234,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：野兽
@@ -241,7 +245,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>2</t>
         </r>
@@ -250,6 +254,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：人物
@@ -260,7 +265,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>3</t>
         </r>
@@ -269,19 +274,21 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：恶魔</t>
         </r>
       </text>
     </comment>
-    <comment ref="AY3" authorId="0">
+    <comment ref="AY3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:
@@ -291,6 +298,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -298,13 +306,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ3" authorId="0">
+    <comment ref="AZ3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -313,6 +322,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -320,13 +330,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF3" authorId="1">
+    <comment ref="BF3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -335,6 +346,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -347,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="188">
   <si>
     <t>Id</t>
   </si>
@@ -908,19 +920,17 @@
   </si>
   <si>
     <t>80004004;80004010;80004013;80002001;80002002;80002006;80002011;80002018;80002022;80002028</t>
+  </si>
+  <si>
+    <t>80001001;1010002;1010012;1010022;1010032</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="34">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -931,6 +941,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -938,226 +949,82 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1184,259 +1051,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.79973754081850645"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.79973754081850645"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.79973754081850645"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.79973754081850645"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.79973754081850645"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.79973754081850645"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799768059327982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799768059327982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799768059327982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799768059327982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799768059327982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799768059327982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1447,7 +1128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1552,399 +1233,172 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="106">
+  <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1985,127 +1439,77 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="106">
+  <cellStyles count="58">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="49"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="50"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="51"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="52"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="54"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="55"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="56"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="57"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="58"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="59"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="60"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="61"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="62"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="63"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="64"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="65"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="66"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="67"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="68"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="69"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="70"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="71"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="72"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="73"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="74"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="75"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="76"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="77"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="78"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="79"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="80"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="81"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="82"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="83"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="84"/>
-    <cellStyle name="常规 2" xfId="85"/>
-    <cellStyle name="常规 2 2" xfId="86"/>
-    <cellStyle name="常规 2 3" xfId="87"/>
-    <cellStyle name="常规 2 3 2" xfId="88"/>
-    <cellStyle name="常规 2 3 2 2" xfId="89"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="90"/>
-    <cellStyle name="常规 2 3 2 3" xfId="91"/>
-    <cellStyle name="常规 2 3 3" xfId="92"/>
-    <cellStyle name="常规 2 3 3 2" xfId="93"/>
-    <cellStyle name="常规 2 3 4" xfId="94"/>
-    <cellStyle name="常规 3" xfId="95"/>
-    <cellStyle name="常规 4" xfId="96"/>
-    <cellStyle name="常规 5" xfId="97"/>
-    <cellStyle name="常规 5 2" xfId="98"/>
-    <cellStyle name="常规 5 2 2" xfId="99"/>
-    <cellStyle name="常规 5 3" xfId="100"/>
-    <cellStyle name="常规 6" xfId="101"/>
-    <cellStyle name="注释 2" xfId="102"/>
-    <cellStyle name="注释 2 2" xfId="103"/>
-    <cellStyle name="注释 2 2 2" xfId="104"/>
-    <cellStyle name="注释 2 3" xfId="105"/>
+    <cellStyle name="常规 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="常规 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="常规 2 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="常规 2 3 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="常规 2 3 4" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="常规 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="常规 4" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="常规 5" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="常规 5 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="常规 5 2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="常规 5 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="常规 6" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="注释 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="注释 2 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="注释 2 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="注释 2 3" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
@@ -2178,6 +1582,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3248,18 +2655,17 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C1:BI25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:JP25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E25"/>
+      <selection pane="bottomLeft" activeCell="BG28" sqref="BG28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3288,13 +2694,13 @@
     <col min="62" max="276" width="8.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="3:3">
+    <row r="1" spans="3:61" s="1" customFormat="1" ht="14.25">
       <c r="C1" s="3"/>
     </row>
-    <row r="2" customHeight="1" spans="4:4">
+    <row r="2" spans="3:61" ht="13.5" customHeight="1">
       <c r="D2" s="1"/>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="3:61">
+    <row r="3" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -3473,7 +2879,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:61">
+    <row r="4" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -3652,7 +3058,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:61">
+    <row r="5" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="4" t="s">
         <v>109</v>
       </c>
@@ -3831,7 +3237,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="3:61">
+    <row r="6" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="7">
         <v>1000101</v>
       </c>
@@ -3997,8 +3403,8 @@
       <c r="BE6" s="8">
         <v>70000011</v>
       </c>
-      <c r="BF6" s="8">
-        <v>80001001</v>
+      <c r="BF6" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="BG6" s="14" t="s">
         <v>117</v>
@@ -4010,7 +3416,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:61">
+    <row r="7" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="7">
         <v>1000201</v>
       </c>
@@ -4189,7 +3595,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:61">
+    <row r="8" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="7">
         <v>1000301</v>
       </c>
@@ -4368,7 +3774,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:61">
+    <row r="9" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C9" s="7">
         <v>1000401</v>
       </c>
@@ -4448,7 +3854,7 @@
         <v>0.95</v>
       </c>
       <c r="AC9" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD9" s="8">
         <v>5000</v>
@@ -4547,7 +3953,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:61">
+    <row r="10" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C10" s="7">
         <v>1000501</v>
       </c>
@@ -4627,7 +4033,7 @@
         <v>0.95</v>
       </c>
       <c r="AC10" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD10" s="8">
         <v>5000</v>
@@ -4669,7 +4075,7 @@
         <v>6</v>
       </c>
       <c r="AQ10" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR10" s="8">
         <v>6</v>
@@ -4713,7 +4119,7 @@
       <c r="BE10" s="8">
         <v>70000012</v>
       </c>
-      <c r="BF10" s="18" t="s">
+      <c r="BF10" s="17" t="s">
         <v>132</v>
       </c>
       <c r="BG10" s="14" t="s">
@@ -4726,7 +4132,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:61">
+    <row r="11" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="7">
         <v>1000601</v>
       </c>
@@ -4806,7 +4212,7 @@
         <v>0.95</v>
       </c>
       <c r="AC11" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD11" s="8">
         <v>5000</v>
@@ -4905,7 +4311,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:61">
+    <row r="12" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C12" s="7">
         <v>1000701</v>
       </c>
@@ -4985,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="8">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD12" s="8">
         <v>5000</v>
@@ -5084,7 +4490,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:61">
+    <row r="13" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C13" s="7">
         <v>1000801</v>
       </c>
@@ -5164,7 +4570,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="8">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD13" s="8">
         <v>5000</v>
@@ -5263,7 +4669,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:61">
+    <row r="14" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C14" s="7">
         <v>1000901</v>
       </c>
@@ -5343,7 +4749,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="8">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD14" s="8">
         <v>5000</v>
@@ -5442,7 +4848,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:61">
+    <row r="15" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C15" s="7">
         <v>1001001</v>
       </c>
@@ -5621,7 +5027,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:61">
+    <row r="16" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C16" s="7">
         <v>1001101</v>
       </c>
@@ -5743,7 +5149,7 @@
         <v>6</v>
       </c>
       <c r="AQ16" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR16" s="8">
         <v>6</v>
@@ -5800,7 +5206,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:61">
+    <row r="17" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C17" s="7">
         <v>1001201</v>
       </c>
@@ -5922,7 +5328,7 @@
         <v>6</v>
       </c>
       <c r="AQ17" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR17" s="8">
         <v>6</v>
@@ -5979,7 +5385,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:61">
+    <row r="18" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C18" s="7">
         <v>1001301</v>
       </c>
@@ -6158,7 +5564,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:61">
+    <row r="19" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C19" s="7">
         <v>1001401</v>
       </c>
@@ -6280,7 +5686,7 @@
         <v>6</v>
       </c>
       <c r="AQ19" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR19" s="8">
         <v>6</v>
@@ -6337,7 +5743,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:61">
+    <row r="20" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="7">
         <v>1009101</v>
       </c>
@@ -6516,7 +5922,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:61">
+    <row r="21" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C21" s="7">
         <v>1009201</v>
       </c>
@@ -6695,7 +6101,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:61">
+    <row r="22" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C22" s="7">
         <v>1009301</v>
       </c>
@@ -6817,7 +6223,7 @@
         <v>6</v>
       </c>
       <c r="AQ22" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR22" s="8">
         <v>6</v>
@@ -6874,7 +6280,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:61">
+    <row r="23" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C23" s="7">
         <v>2000001</v>
       </c>
@@ -7038,7 +6444,7 @@
       <c r="BE23" s="8">
         <v>70000011</v>
       </c>
-      <c r="BF23" s="19" t="s">
+      <c r="BF23" s="18" t="s">
         <v>182</v>
       </c>
       <c r="BG23" s="8">
@@ -7047,11 +6453,11 @@
       <c r="BH23" s="15">
         <v>200001</v>
       </c>
-      <c r="BI23" s="17">
+      <c r="BI23" s="16">
         <v>100</v>
       </c>
     </row>
-    <row r="24" ht="20.1" customHeight="1" spans="3:61">
+    <row r="24" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C24" s="7">
         <v>2000002</v>
       </c>
@@ -7173,7 +6579,7 @@
         <v>6</v>
       </c>
       <c r="AQ24" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR24" s="8">
         <v>6</v>
@@ -7215,7 +6621,7 @@
       <c r="BE24" s="8">
         <v>70000012</v>
       </c>
-      <c r="BF24" s="18" t="s">
+      <c r="BF24" s="17" t="s">
         <v>184</v>
       </c>
       <c r="BG24" s="8">
@@ -7224,11 +6630,11 @@
       <c r="BH24" s="15">
         <v>200002</v>
       </c>
-      <c r="BI24" s="17">
+      <c r="BI24" s="16">
         <v>100</v>
       </c>
     </row>
-    <row r="25" ht="20.1" customHeight="1" spans="3:61">
+    <row r="25" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C25" s="7">
         <v>2000003</v>
       </c>
@@ -7392,25 +6798,26 @@
       <c r="BE25" s="8">
         <v>70000011</v>
       </c>
-      <c r="BF25" s="18" t="s">
+      <c r="BF25" s="17" t="s">
         <v>186</v>
       </c>
       <c r="BG25" s="8">
         <v>0</v>
       </c>
-      <c r="BH25" s="17">
+      <c r="BH25" s="16">
         <v>200003</v>
       </c>
-      <c r="BI25" s="17">
+      <c r="BI25" s="16">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/PetConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PetConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mengjing\Unity\Assets\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C96033F-E497-4722-B147-2DA6BDD1D0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DC87B6-4619-450C-9F06-08F186B95331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -2663,9 +2663,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AV1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BG28" sqref="BG28"/>
+      <selection pane="bottomLeft" activeCell="BE18" sqref="BE18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="BE6" s="8">
-        <v>70000011</v>
+        <v>2000101</v>
       </c>
       <c r="BF6" s="8" t="s">
         <v>187</v>
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="BE7" s="8">
-        <v>70000012</v>
+        <v>2000102</v>
       </c>
       <c r="BF7" s="8" t="s">
         <v>121</v>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="BE8" s="8">
-        <v>70000011</v>
+        <v>2000101</v>
       </c>
       <c r="BF8" s="8">
         <v>80001018</v>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="BE9" s="8">
-        <v>70000011</v>
+        <v>2000101</v>
       </c>
       <c r="BF9" s="8">
         <v>80001004</v>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="BE10" s="8">
-        <v>70000012</v>
+        <v>2000102</v>
       </c>
       <c r="BF10" s="17" t="s">
         <v>132</v>
@@ -4296,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="BE11" s="8">
-        <v>70000011</v>
+        <v>2000101</v>
       </c>
       <c r="BF11" s="8">
         <v>80001006</v>
@@ -4475,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="BE12" s="8">
-        <v>70000011</v>
+        <v>2000101</v>
       </c>
       <c r="BF12" s="8">
         <v>80001007</v>
@@ -4654,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="BE13" s="8">
-        <v>70000011</v>
+        <v>2000101</v>
       </c>
       <c r="BF13" s="8" t="s">
         <v>142</v>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="BE14" s="8">
-        <v>70000011</v>
+        <v>2000101</v>
       </c>
       <c r="BF14" s="8">
         <v>80001009</v>
@@ -5012,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="BE15" s="8">
-        <v>70000011</v>
+        <v>2000101</v>
       </c>
       <c r="BF15" s="8" t="s">
         <v>150</v>
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="BE16" s="8">
-        <v>70000012</v>
+        <v>2000102</v>
       </c>
       <c r="BF16" s="8" t="s">
         <v>154</v>
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="BE17" s="8">
-        <v>70000012</v>
+        <v>2000102</v>
       </c>
       <c r="BF17" s="8" t="s">
         <v>158</v>
@@ -5549,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="BE18" s="8">
-        <v>70000011</v>
+        <v>2000101</v>
       </c>
       <c r="BF18" s="8" t="s">
         <v>162</v>
@@ -5728,7 +5728,7 @@
         <v>0</v>
       </c>
       <c r="BE19" s="8">
-        <v>70000012</v>
+        <v>2000102</v>
       </c>
       <c r="BF19" s="8" t="s">
         <v>166</v>
@@ -5907,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="BE20" s="8">
-        <v>70000011</v>
+        <v>2000101</v>
       </c>
       <c r="BF20" s="8" t="s">
         <v>170</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="BE21" s="8">
-        <v>70000011</v>
+        <v>2000101</v>
       </c>
       <c r="BF21" s="8" t="s">
         <v>174</v>
@@ -6265,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="BE22" s="8">
-        <v>70000012</v>
+        <v>2000102</v>
       </c>
       <c r="BF22" s="8" t="s">
         <v>178</v>
@@ -6442,7 +6442,7 @@
         <v>0</v>
       </c>
       <c r="BE23" s="8">
-        <v>70000011</v>
+        <v>2000101</v>
       </c>
       <c r="BF23" s="18" t="s">
         <v>182</v>
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="BE24" s="8">
-        <v>70000012</v>
+        <v>2000102</v>
       </c>
       <c r="BF24" s="17" t="s">
         <v>184</v>
@@ -6796,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="BE25" s="8">
-        <v>70000011</v>
+        <v>2000101</v>
       </c>
       <c r="BF25" s="17" t="s">
         <v>186</v>

--- a/Unity/Assets/Config/Excel/PetConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PetConfig.xlsx
@@ -1,40 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DC87B6-4619-450C-9F06-08F186B95331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
     <author>51Gamer_D01</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -42,7 +49,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -51,7 +58,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>用于宠物界面展示的位置</t>
@@ -60,7 +66,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>,</t>
         </r>
@@ -68,7 +74,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">在摄像机前修正位置
@@ -76,14 +81,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -91,7 +96,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 0</t>
@@ -100,7 +105,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：普通
@@ -110,7 +114,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -118,7 +122,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：变异
@@ -128,7 +131,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>2</t>
         </r>
@@ -136,21 +139,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：神兽</t>
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="J3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -159,7 +160,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -167,14 +167,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="O3" authorId="2">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者</t>
@@ -184,7 +183,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">:
 </t>
@@ -194,7 +193,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">怪物类型
@@ -205,7 +203,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>0</t>
         </r>
@@ -214,7 +212,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：通用
@@ -225,7 +222,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -234,7 +231,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：野兽
@@ -245,7 +241,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>2</t>
         </r>
@@ -254,7 +250,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：人物
@@ -265,7 +260,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>3</t>
         </r>
@@ -274,21 +269,19 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：恶魔</t>
         </r>
       </text>
     </comment>
-    <comment ref="AY3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="AY3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:
@@ -298,7 +291,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -306,14 +298,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="AZ3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -322,7 +313,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -330,14 +320,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="BF3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -346,7 +335,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -359,7 +347,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="190">
   <si>
     <t>Id</t>
   </si>
@@ -514,6 +502,9 @@
     <t>宠物皮肤激活概率</t>
   </si>
   <si>
+    <t>攻击方式</t>
+  </si>
+  <si>
     <t>PetName</t>
   </si>
   <si>
@@ -688,6 +679,9 @@
     <t>SkinPro</t>
   </si>
   <si>
+    <t>AttackType</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -712,6 +706,9 @@
     <t>10000131,2</t>
   </si>
   <si>
+    <t>80001001;1010002;1010012;1010022;1010032</t>
+  </si>
+  <si>
     <t>80001010,0.2;80001014,0.2;80001015,0.2</t>
   </si>
   <si>
@@ -920,17 +917,19 @@
   </si>
   <si>
     <t>80004004;80004010;80004013;80002001;80002002;80002006;80002011;80002018;80002022;80002028</t>
-  </si>
-  <si>
-    <t>80001001;1010002;1010012;1010022;1010032</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -941,7 +940,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -949,82 +947,226 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1051,73 +1193,259 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79973754081850645"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79973754081850645"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79973754081850645"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79973754081850645"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79973754081850645"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79973754081850645"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799737540818506"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799737540818506"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799737540818506"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799737540818506"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799737540818506"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799737540818506"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1128,7 +1456,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1233,172 +1561,399 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="48" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="48" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="48" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="48" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1439,77 +1994,127 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="58">
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+  <cellStyles count="106">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="常规 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="常规 2 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="常规 2 3 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="常规 2 3 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="常规 2 3 2 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="常规 2 3 3" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="常规 2 3 3 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="常规 2 3 4" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="常规 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="常规 4" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="常规 5" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="常规 5 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="常规 5 2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="常规 5 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="常规 6" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="注释 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="注释 2 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="注释 2 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="注释 2 3" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="49"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="50"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="51"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="52"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="54"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="55"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="56"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="57"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="58"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="59"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="60"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="61"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="62"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="63"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="64"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="65"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="66"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="67"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="68"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="69"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="70"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="71"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="72"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="73"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="74"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="75"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="76"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="77"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="78"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="79"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="80"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="81"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="82"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="83"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="84"/>
+    <cellStyle name="常规 2" xfId="85"/>
+    <cellStyle name="常规 2 2" xfId="86"/>
+    <cellStyle name="常规 2 3" xfId="87"/>
+    <cellStyle name="常规 2 3 2" xfId="88"/>
+    <cellStyle name="常规 2 3 2 2" xfId="89"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="90"/>
+    <cellStyle name="常规 2 3 2 3" xfId="91"/>
+    <cellStyle name="常规 2 3 3" xfId="92"/>
+    <cellStyle name="常规 2 3 3 2" xfId="93"/>
+    <cellStyle name="常规 2 3 4" xfId="94"/>
+    <cellStyle name="常规 3" xfId="95"/>
+    <cellStyle name="常规 4" xfId="96"/>
+    <cellStyle name="常规 5" xfId="97"/>
+    <cellStyle name="常规 5 2" xfId="98"/>
+    <cellStyle name="常规 5 2 2" xfId="99"/>
+    <cellStyle name="常规 5 3" xfId="100"/>
+    <cellStyle name="常规 6" xfId="101"/>
+    <cellStyle name="注释 2" xfId="102"/>
+    <cellStyle name="注释 2 2" xfId="103"/>
+    <cellStyle name="注释 2 2 2" xfId="104"/>
+    <cellStyle name="注释 2 3" xfId="105"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
@@ -1582,9 +2187,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2655,17 +3257,18 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:JP25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:BJ25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BH1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BE18" sqref="BE18"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="BJ24" sqref="BJ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2691,16 +3294,17 @@
     <col min="58" max="58" width="25.75" style="2" customWidth="1"/>
     <col min="59" max="59" width="35.375" style="2" customWidth="1"/>
     <col min="60" max="61" width="25.5" style="2" customWidth="1"/>
-    <col min="62" max="276" width="8.875" style="2" customWidth="1"/>
+    <col min="62" max="62" width="15.625" style="2" customWidth="1"/>
+    <col min="63" max="276" width="8.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:61" s="1" customFormat="1" ht="14.25">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="3:3">
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="3:61" ht="13.5" customHeight="1">
+    <row r="2" customHeight="1" spans="4:4">
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="3" ht="20.1" customHeight="1" spans="3:62">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2878,371 +3482,380 @@
       <c r="BI3" s="13" t="s">
         <v>50</v>
       </c>
+      <c r="BJ3" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="4" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="4" ht="20.1" customHeight="1" spans="3:62">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB4" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC4" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AK4" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL4" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM4" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN4" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AO4" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP4" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AQ4" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AR4" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AS4" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AT4" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AU4" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AV4" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AW4" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AX4" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AY4" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AZ4" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BA4" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BB4" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="BC4" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BD4" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BE4" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="BF4" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="BG4" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BH4" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BI4" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="BJ4" s="9" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="5" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="5" ht="20.1" customHeight="1" spans="3:62">
       <c r="C5" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="O5" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="P5" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AB5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AT5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX5" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ5" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="BB5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD5" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AC5" s="5" t="s">
+      <c r="BE5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF5" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AD5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI5" s="5" t="s">
+      <c r="BG5" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AJ5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AM5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AR5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AV5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AW5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX5" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ5" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BA5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="BB5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="BC5" s="5" t="s">
+      <c r="BH5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BI5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BJ5" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="BD5" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="BE5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="BF5" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="BG5" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="BI5" s="5" t="s">
-        <v>111</v>
-      </c>
     </row>
-    <row r="6" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="6" ht="20.1" customHeight="1" spans="3:62">
       <c r="C6" s="7">
         <v>1000101</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E6" s="7">
         <v>1000101</v>
@@ -3254,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I6" s="8">
         <v>0</v>
@@ -3269,7 +3882,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N6" s="7">
         <v>0</v>
@@ -3395,7 +4008,7 @@
         <v>1</v>
       </c>
       <c r="BC6" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="BD6" s="8">
         <v>0</v>
@@ -3404,24 +4017,27 @@
         <v>2000101</v>
       </c>
       <c r="BF6" s="8" t="s">
-        <v>187</v>
+        <v>119</v>
       </c>
       <c r="BG6" s="14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BH6" s="15" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="BI6" s="15" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="BJ6" s="8">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="7" ht="20.1" customHeight="1" spans="3:62">
       <c r="C7" s="7">
         <v>1000201</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E7" s="7">
         <v>1000101</v>
@@ -3433,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I7" s="8">
         <v>0</v>
@@ -3448,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N7" s="7">
         <v>0</v>
@@ -3574,7 +4190,7 @@
         <v>1</v>
       </c>
       <c r="BC7" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="BD7" s="8">
         <v>0</v>
@@ -3583,24 +4199,27 @@
         <v>2000102</v>
       </c>
       <c r="BF7" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BG7" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="BH7" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="BI7" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="BH7" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="BI7" s="15" t="s">
-        <v>119</v>
+      <c r="BJ7" s="8">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="8" ht="20.1" customHeight="1" spans="3:62">
       <c r="C8" s="7">
         <v>1000301</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E8" s="7">
         <v>1000101</v>
@@ -3612,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I8" s="8">
         <v>0</v>
@@ -3627,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N8" s="7">
         <v>0</v>
@@ -3753,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="BC8" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="BD8" s="8">
         <v>0</v>
@@ -3765,21 +4384,24 @@
         <v>80001018</v>
       </c>
       <c r="BG8" s="14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="BH8" s="15" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="BI8" s="15" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="BJ8" s="8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="9" ht="20.1" customHeight="1" spans="3:62">
       <c r="C9" s="7">
         <v>1000401</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E9" s="7">
         <v>1000101</v>
@@ -3791,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I9" s="8">
         <v>0</v>
@@ -3806,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N9" s="7">
         <v>0</v>
@@ -3854,7 +4476,7 @@
         <v>0.95</v>
       </c>
       <c r="AC9" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AD9" s="8">
         <v>5000</v>
@@ -3932,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="BC9" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="BD9" s="8">
         <v>0</v>
@@ -3944,21 +4566,24 @@
         <v>80001004</v>
       </c>
       <c r="BG9" s="14" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="BH9" s="15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="BI9" s="15" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="BJ9" s="8">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="10" ht="20.1" customHeight="1" spans="3:62">
       <c r="C10" s="7">
         <v>1000501</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E10" s="7">
         <v>1000101</v>
@@ -3970,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I10" s="8">
         <v>0</v>
@@ -3985,7 +4610,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N10" s="7">
         <v>0</v>
@@ -4033,7 +4658,7 @@
         <v>0.95</v>
       </c>
       <c r="AC10" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AD10" s="8">
         <v>5000</v>
@@ -4075,7 +4700,7 @@
         <v>6</v>
       </c>
       <c r="AQ10" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AR10" s="8">
         <v>6</v>
@@ -4111,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="BC10" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="BD10" s="8">
         <v>0</v>
@@ -4119,25 +4744,28 @@
       <c r="BE10" s="8">
         <v>2000102</v>
       </c>
-      <c r="BF10" s="17" t="s">
-        <v>132</v>
+      <c r="BF10" s="18" t="s">
+        <v>135</v>
       </c>
       <c r="BG10" s="14" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="BH10" s="15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="BI10" s="15" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="BJ10" s="8">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="11" ht="20.1" customHeight="1" spans="3:62">
       <c r="C11" s="7">
         <v>1000601</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E11" s="7">
         <v>1000101</v>
@@ -4149,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I11" s="8">
         <v>0</v>
@@ -4164,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N11" s="7">
         <v>0</v>
@@ -4212,7 +4840,7 @@
         <v>0.95</v>
       </c>
       <c r="AC11" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AD11" s="8">
         <v>5000</v>
@@ -4290,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="BC11" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="BD11" s="8">
         <v>0</v>
@@ -4302,21 +4930,24 @@
         <v>80001006</v>
       </c>
       <c r="BG11" s="14" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="BH11" s="15" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="BI11" s="15" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="BJ11" s="8">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="12" ht="20.1" customHeight="1" spans="3:62">
       <c r="C12" s="7">
         <v>1000701</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E12" s="7">
         <v>1000101</v>
@@ -4328,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I12" s="8">
         <v>0</v>
@@ -4343,7 +4974,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N12" s="7">
         <v>0</v>
@@ -4391,7 +5022,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="8">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AD12" s="8">
         <v>5000</v>
@@ -4469,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="BC12" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="BD12" s="8">
         <v>0</v>
@@ -4481,21 +5112,24 @@
         <v>80001007</v>
       </c>
       <c r="BG12" s="14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="BH12" s="15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="BI12" s="15" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="BJ12" s="8">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="13" ht="20.1" customHeight="1" spans="3:62">
       <c r="C13" s="7">
         <v>1000801</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E13" s="7">
         <v>1000101</v>
@@ -4507,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I13" s="8">
         <v>0</v>
@@ -4522,7 +5156,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N13" s="7">
         <v>0</v>
@@ -4570,7 +5204,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="8">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AD13" s="8">
         <v>5000</v>
@@ -4648,7 +5282,7 @@
         <v>1</v>
       </c>
       <c r="BC13" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="BD13" s="8">
         <v>0</v>
@@ -4657,24 +5291,27 @@
         <v>2000101</v>
       </c>
       <c r="BF13" s="8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="BG13" s="14" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="BH13" s="15" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="BI13" s="15" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="BJ13" s="8">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="14" ht="20.1" customHeight="1" spans="3:62">
       <c r="C14" s="7">
         <v>1000901</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E14" s="7">
         <v>1000101</v>
@@ -4686,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I14" s="8">
         <v>0</v>
@@ -4701,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N14" s="7">
         <v>0</v>
@@ -4749,7 +5386,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="8">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AD14" s="8">
         <v>5000</v>
@@ -4827,7 +5464,7 @@
         <v>1</v>
       </c>
       <c r="BC14" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="BD14" s="8">
         <v>0</v>
@@ -4839,21 +5476,24 @@
         <v>80001009</v>
       </c>
       <c r="BG14" s="14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="BH14" s="15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BI14" s="15" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="BJ14" s="8">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="15" ht="20.1" customHeight="1" spans="3:62">
       <c r="C15" s="7">
         <v>1001001</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E15" s="7">
         <v>1000101</v>
@@ -4865,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I15" s="8">
         <v>0</v>
@@ -4880,7 +5520,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N15" s="7">
         <v>0</v>
@@ -5006,7 +5646,7 @@
         <v>1</v>
       </c>
       <c r="BC15" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="BD15" s="8">
         <v>0</v>
@@ -5015,24 +5655,27 @@
         <v>2000101</v>
       </c>
       <c r="BF15" s="8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="BG15" s="14" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="BH15" s="15" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="BI15" s="15" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="BJ15" s="8">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="16" ht="20.1" customHeight="1" spans="3:62">
       <c r="C16" s="7">
         <v>1001101</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E16" s="7">
         <v>1000101</v>
@@ -5044,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I16" s="8">
         <v>0</v>
@@ -5059,7 +5702,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N16" s="7">
         <v>0</v>
@@ -5149,7 +5792,7 @@
         <v>6</v>
       </c>
       <c r="AQ16" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AR16" s="8">
         <v>6</v>
@@ -5185,7 +5828,7 @@
         <v>1</v>
       </c>
       <c r="BC16" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="BD16" s="8">
         <v>0</v>
@@ -5194,24 +5837,27 @@
         <v>2000102</v>
       </c>
       <c r="BF16" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="BG16" s="14" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="BH16" s="15" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="BI16" s="15" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="BJ16" s="8">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="17" ht="20.1" customHeight="1" spans="3:62">
       <c r="C17" s="7">
         <v>1001201</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E17" s="7">
         <v>1000101</v>
@@ -5223,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I17" s="8">
         <v>0</v>
@@ -5238,7 +5884,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N17" s="7">
         <v>0</v>
@@ -5328,7 +5974,7 @@
         <v>6</v>
       </c>
       <c r="AQ17" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AR17" s="8">
         <v>6</v>
@@ -5364,7 +6010,7 @@
         <v>1</v>
       </c>
       <c r="BC17" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="BD17" s="8">
         <v>0</v>
@@ -5373,24 +6019,27 @@
         <v>2000102</v>
       </c>
       <c r="BF17" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="BG17" s="14" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="BH17" s="15" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="BI17" s="15" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="BJ17" s="8">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="18" ht="20.1" customHeight="1" spans="3:62">
       <c r="C18" s="7">
         <v>1001301</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E18" s="7">
         <v>1000101</v>
@@ -5402,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I18" s="8">
         <v>0</v>
@@ -5417,7 +6066,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N18" s="7">
         <v>0</v>
@@ -5543,7 +6192,7 @@
         <v>1</v>
       </c>
       <c r="BC18" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="BD18" s="8">
         <v>0</v>
@@ -5552,24 +6201,27 @@
         <v>2000101</v>
       </c>
       <c r="BF18" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="BG18" s="14" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="BH18" s="15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BI18" s="15" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="BJ18" s="8">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="19" ht="20.1" customHeight="1" spans="3:62">
       <c r="C19" s="7">
         <v>1001401</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E19" s="7">
         <v>1000101</v>
@@ -5581,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I19" s="8">
         <v>0</v>
@@ -5596,7 +6248,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N19" s="7">
         <v>0</v>
@@ -5686,7 +6338,7 @@
         <v>6</v>
       </c>
       <c r="AQ19" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AR19" s="8">
         <v>6</v>
@@ -5722,7 +6374,7 @@
         <v>1</v>
       </c>
       <c r="BC19" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="BD19" s="8">
         <v>0</v>
@@ -5731,24 +6383,27 @@
         <v>2000102</v>
       </c>
       <c r="BF19" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BG19" s="14" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BH19" s="15" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="BI19" s="15" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="BJ19" s="8">
+        <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="20" ht="20.1" customHeight="1" spans="3:62">
       <c r="C20" s="7">
         <v>1009101</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E20" s="7">
         <v>1000101</v>
@@ -5760,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I20" s="8">
         <v>0</v>
@@ -5775,7 +6430,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N20" s="7">
         <v>0</v>
@@ -5901,7 +6556,7 @@
         <v>1</v>
       </c>
       <c r="BC20" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="BD20" s="8">
         <v>0</v>
@@ -5910,24 +6565,27 @@
         <v>2000101</v>
       </c>
       <c r="BF20" s="8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="BG20" s="14" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="BH20" s="15" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="BI20" s="15" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="BJ20" s="8">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="21" ht="20.1" customHeight="1" spans="3:62">
       <c r="C21" s="7">
         <v>1009201</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E21" s="7">
         <v>1000101</v>
@@ -5939,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I21" s="8">
         <v>0</v>
@@ -5954,7 +6612,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N21" s="7">
         <v>0</v>
@@ -6080,7 +6738,7 @@
         <v>1</v>
       </c>
       <c r="BC21" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="BD21" s="8">
         <v>0</v>
@@ -6089,24 +6747,27 @@
         <v>2000101</v>
       </c>
       <c r="BF21" s="8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="BG21" s="14" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="BH21" s="15" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="BI21" s="15" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="BJ21" s="8">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="22" ht="20.1" customHeight="1" spans="3:62">
       <c r="C22" s="7">
         <v>1009301</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E22" s="7">
         <v>1000101</v>
@@ -6118,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I22" s="8">
         <v>0</v>
@@ -6133,7 +6794,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N22" s="7">
         <v>0</v>
@@ -6223,7 +6884,7 @@
         <v>6</v>
       </c>
       <c r="AQ22" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AR22" s="8">
         <v>6</v>
@@ -6259,7 +6920,7 @@
         <v>1</v>
       </c>
       <c r="BC22" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="BD22" s="8">
         <v>0</v>
@@ -6268,24 +6929,27 @@
         <v>2000102</v>
       </c>
       <c r="BF22" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="BG22" s="14" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="BH22" s="15" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="BI22" s="15" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="BJ22" s="8">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="23" ht="20.1" customHeight="1" spans="3:62">
       <c r="C23" s="7">
         <v>2000001</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E23" s="7">
         <v>1000101</v>
@@ -6297,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I23" s="8">
         <v>2</v>
@@ -6312,7 +6976,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N23" s="7">
         <v>0</v>
@@ -6444,8 +7108,8 @@
       <c r="BE23" s="8">
         <v>2000101</v>
       </c>
-      <c r="BF23" s="18" t="s">
-        <v>182</v>
+      <c r="BF23" s="19" t="s">
+        <v>185</v>
       </c>
       <c r="BG23" s="8">
         <v>0</v>
@@ -6453,16 +7117,19 @@
       <c r="BH23" s="15">
         <v>200001</v>
       </c>
-      <c r="BI23" s="16">
+      <c r="BI23" s="17">
         <v>100</v>
       </c>
+      <c r="BJ23" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="24" ht="20.1" customHeight="1" spans="3:62">
       <c r="C24" s="7">
         <v>2000002</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E24" s="7">
         <v>1000101</v>
@@ -6474,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I24" s="8">
         <v>2</v>
@@ -6489,7 +7156,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N24" s="7">
         <v>0</v>
@@ -6579,7 +7246,7 @@
         <v>6</v>
       </c>
       <c r="AQ24" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AR24" s="8">
         <v>6</v>
@@ -6621,8 +7288,8 @@
       <c r="BE24" s="8">
         <v>2000102</v>
       </c>
-      <c r="BF24" s="17" t="s">
-        <v>184</v>
+      <c r="BF24" s="18" t="s">
+        <v>187</v>
       </c>
       <c r="BG24" s="8">
         <v>0</v>
@@ -6630,16 +7297,19 @@
       <c r="BH24" s="15">
         <v>200002</v>
       </c>
-      <c r="BI24" s="16">
+      <c r="BI24" s="17">
         <v>100</v>
       </c>
+      <c r="BJ24" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="25" ht="20.1" customHeight="1" spans="3:62">
       <c r="C25" s="7">
         <v>2000003</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E25" s="7">
         <v>1000101</v>
@@ -6651,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I25" s="8">
         <v>2</v>
@@ -6666,7 +7336,7 @@
         <v>1</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N25" s="7">
         <v>0</v>
@@ -6798,26 +7468,28 @@
       <c r="BE25" s="8">
         <v>2000101</v>
       </c>
-      <c r="BF25" s="17" t="s">
-        <v>186</v>
+      <c r="BF25" s="18" t="s">
+        <v>189</v>
       </c>
       <c r="BG25" s="8">
         <v>0</v>
       </c>
-      <c r="BH25" s="16">
+      <c r="BH25" s="17">
         <v>200003</v>
       </c>
-      <c r="BI25" s="16">
+      <c r="BI25" s="17">
         <v>100</v>
+      </c>
+      <c r="BJ25" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/PetConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PetConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF08247-5231-439D-8277-9BD1D4DCC976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B898BC6-AC46-415B-A040-F37F7867511E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="197">
   <si>
     <t>Id</t>
   </si>
@@ -941,6 +941,22 @@
   <si>
     <t>神愈使者</t>
     <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2101010;2101020;2101030</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2102010;2102020;2102030</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2103010;2103020;2103030</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2712,9 +2728,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AL1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BE8" sqref="BE8"/>
+      <selection pane="bottomLeft" activeCell="AR8" sqref="AR8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3463,16 +3479,16 @@
         <v>2000101</v>
       </c>
       <c r="BF6" s="21" t="s">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="BG6" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="BH6" s="23" t="s">
-        <v>121</v>
+      <c r="BH6" s="23">
+        <v>200010</v>
       </c>
       <c r="BI6" s="23" t="s">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="BJ6" s="21">
         <v>0</v>
@@ -3817,7 +3833,7 @@
         <v>1</v>
       </c>
       <c r="AR7" s="21">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AS7" s="21">
         <v>132</v>
@@ -3859,16 +3875,16 @@
         <v>2000102</v>
       </c>
       <c r="BF7" s="21" t="s">
-        <v>119</v>
+        <v>194</v>
       </c>
       <c r="BG7" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="BH7" s="23" t="s">
-        <v>121</v>
+      <c r="BH7" s="23">
+        <v>200020</v>
       </c>
       <c r="BI7" s="23" t="s">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="BJ7" s="21">
         <v>0</v>
@@ -4213,7 +4229,7 @@
         <v>1</v>
       </c>
       <c r="AR8" s="21">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AS8" s="21">
         <v>132</v>
@@ -4255,16 +4271,16 @@
         <v>2000102</v>
       </c>
       <c r="BF8" s="21" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="BG8" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="BH8" s="23" t="s">
-        <v>121</v>
+      <c r="BH8" s="23">
+        <v>200030</v>
       </c>
       <c r="BI8" s="23" t="s">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="BJ8" s="21">
         <v>0</v>
@@ -12401,10 +12417,10 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/PetConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PetConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B898BC6-AC46-415B-A040-F37F7867511E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350D106D-F0AC-477B-8465-EB98F230AB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2728,9 +2728,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AR8" sqref="AR8"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3319,8 +3319,8 @@
       <c r="D6" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="E6" s="12">
-        <v>1000101</v>
+      <c r="E6" s="20">
+        <v>20001</v>
       </c>
       <c r="F6" s="20">
         <v>20001</v>
@@ -3715,8 +3715,8 @@
       <c r="D7" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="12">
-        <v>1000101</v>
+      <c r="E7" s="20">
+        <v>20002</v>
       </c>
       <c r="F7" s="20">
         <v>20002</v>
@@ -4111,8 +4111,8 @@
       <c r="D8" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E8" s="12">
-        <v>1000101</v>
+      <c r="E8" s="20">
+        <v>20003</v>
       </c>
       <c r="F8" s="20">
         <v>20003</v>

--- a/Unity/Assets/Config/Excel/PetConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PetConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9CFE9A-72AC-47CE-B6BD-C356B3AA1FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EAD122-3709-40AD-821A-40E84ED2516E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1065,106 +1065,106 @@
     <t>熔岩护卫</t>
   </si>
   <si>
-    <t>2301011,0.5;2301005,0.1;2301010,0.1;</t>
-  </si>
-  <si>
-    <t>2301002,0.2;2301019,0.2;</t>
-  </si>
-  <si>
-    <t>2301007,0.2;2301019,0.2;</t>
-  </si>
-  <si>
-    <t>2301013,0.5;2301007,0.1;2301008,0.1;</t>
-  </si>
-  <si>
-    <t>2301012,0.2;2301020,0.2;</t>
-  </si>
-  <si>
-    <t>2301004,0.2;2301016,0.2;</t>
-  </si>
-  <si>
-    <t>2301016,0.5;2301019,0.1;2301020,0.1;</t>
-  </si>
-  <si>
-    <t>2301016,0.2;2301017,0.2;</t>
-  </si>
-  <si>
-    <t>2301013,0.5;2301018,0.1;2301007,0.1;</t>
-  </si>
-  <si>
-    <t>2301014,0.5;2301010,0.1;2301016,0.1;</t>
-  </si>
-  <si>
-    <t>2301002,0.2;2301020,0.2;</t>
-  </si>
-  <si>
-    <t>2301005,0.5;2301001,0.2;2301013,0.2;</t>
-  </si>
-  <si>
-    <t>2301011,0.5;2301009,0.2;2301014,0.2;</t>
-  </si>
-  <si>
-    <t>2301010,0.5;2302018,0.2;2301005,0.2;</t>
-  </si>
-  <si>
-    <t>2301011,0.5;2301013,0.2;2302017,0.2;</t>
-  </si>
-  <si>
-    <t>2301012,0.5;2302016,0.2;2301018,0.2;</t>
-  </si>
-  <si>
-    <t>2301013,0.5;2302015,0.2;2302014,0.2;</t>
-  </si>
-  <si>
-    <t>2301008,0.5;2302013,0.2;2301015,0.2;</t>
-  </si>
-  <si>
-    <t>2301015,0.5;2302012,0.2;2301016,0.2;</t>
-  </si>
-  <si>
-    <t>2301016,0.5;2302007,0.2;2301001,0.2;</t>
-  </si>
-  <si>
-    <t>2301017,0.5;2302011,0.2;2301002,0.2;</t>
-  </si>
-  <si>
-    <t>2301018,0.5;2302005,0.2;2301019,0.2;</t>
-  </si>
-  <si>
-    <t>2301019,0.5;2302006,0.2;2301020,0.2;</t>
-  </si>
-  <si>
-    <t>2301005,0.5;2301020,0.2;2302011,0.2;</t>
-  </si>
-  <si>
-    <t>2301001,0.5;2302010,0.2;2301019,0.2;</t>
-  </si>
-  <si>
-    <t>2301020,0.5;2302008,0.2;2301002,0.2;</t>
-  </si>
-  <si>
-    <t>2301002,0.5;2301011,0.2;2302009,0.2;</t>
-  </si>
-  <si>
-    <t>2301004,0.5;2302007,0.2;2301011,0.2;</t>
-  </si>
-  <si>
-    <t>2301005,0.5;2302003,0.2;2301012,0.1;2301016,0.1</t>
-  </si>
-  <si>
-    <t>2301010,0.5;2302006,0.2;2301007,0.1;2301017,0.1</t>
-  </si>
-  <si>
-    <t>2301007,0.5;2302004,0.2;2301020,0.1;2301010,0.1</t>
-  </si>
-  <si>
-    <t>2301010,0.5;2302005,0.2;2301009,0.1;2301011,0.1</t>
-  </si>
-  <si>
-    <t>2301009,0.5;2302001,0.2;2302019,0.1;2301012,0.1</t>
-  </si>
-  <si>
-    <t>2301010,0.5;2302002,0.2;2302020,0.1;2301013,0.1</t>
+    <t>2301011,0.5;2301005,0.15;2303010;0.15</t>
+  </si>
+  <si>
+    <t>2301002,0.3;2303020;0.15</t>
+  </si>
+  <si>
+    <t>2301007,0.3;2303030;0.15</t>
+  </si>
+  <si>
+    <t>2301013,0.5;2301007,0.15;2303040;0.15</t>
+  </si>
+  <si>
+    <t>2301012,0.3;2303050;0.15</t>
+  </si>
+  <si>
+    <t>2301004,0.3;2303060;0.15</t>
+  </si>
+  <si>
+    <t>2301016,0.5;2301019,0.15;2303070;0.15</t>
+  </si>
+  <si>
+    <t>2301016,0.3;2303080;0.15</t>
+  </si>
+  <si>
+    <t>2301013,0.5;2301018,0.15;2303090;0.15</t>
+  </si>
+  <si>
+    <t>2301014,0.5;2301010,0.15;2303100;0.15</t>
+  </si>
+  <si>
+    <t>2301002,0.3;2303110;0.152303040;0.15</t>
+  </si>
+  <si>
+    <t>2301005,0.5;2301001,0.3;2303120;0.15</t>
+  </si>
+  <si>
+    <t>2301011,0.5;2301009,0.3;2303130;0.15</t>
+  </si>
+  <si>
+    <t>2301010,0.5;2303140;0.152303090;0.15</t>
+  </si>
+  <si>
+    <t>2301011,0.5;2301013,0.3;2303150;0.15</t>
+  </si>
+  <si>
+    <t>2301012,0.5;2302016,0.3;2303160;0.15</t>
+  </si>
+  <si>
+    <t>2301013,0.5;2303170;0.152303090;0.15</t>
+  </si>
+  <si>
+    <t>2301008,0.5;2302013,0.3;2303180;0.15</t>
+  </si>
+  <si>
+    <t>2301015,0.5;2302012,0.3;2303190;0.15</t>
+  </si>
+  <si>
+    <t>2301016,0.5;2302007,0.3;2303200;0.15</t>
+  </si>
+  <si>
+    <t>2301017,0.5;2303210;0.152303080;0.15</t>
+  </si>
+  <si>
+    <t>2301018,0.5;2302005,0.3;2303220;0.15</t>
+  </si>
+  <si>
+    <t>2301019,0.5;2303230;0.152303120;0.15</t>
+  </si>
+  <si>
+    <t>2301005,0.5;2301020,0.3;2303240;0.15</t>
+  </si>
+  <si>
+    <t>2301001,0.5;2302010,0.3;2303250;0.15</t>
+  </si>
+  <si>
+    <t>2301020,0.5;2302008,0.3;2303260;0.15</t>
+  </si>
+  <si>
+    <t>2301002,0.5;2301011,0.3;2303270;0.15</t>
+  </si>
+  <si>
+    <t>2301004,0.5;2302007,0.3;2303280;0.152303070;0.15</t>
+  </si>
+  <si>
+    <t>2301005,0.5;2302003,0.3;2303290;0.15</t>
+  </si>
+  <si>
+    <t>2301010,0.5;2302006,0.3;2303300;0.152303020;0.15</t>
+  </si>
+  <si>
+    <t>2301007,0.5;2302004,0.3;2303310;0.15</t>
+  </si>
+  <si>
+    <t>2301010,0.5;2302005,0.3;2303320;0.15</t>
+  </si>
+  <si>
+    <t>2301009,0.5;2302001,0.3;2303330;0.15</t>
+  </si>
+  <si>
+    <t>2301010,0.5;2302002,0.3;2303340;0.152303240;0.15</t>
   </si>
 </sst>
 </file>
@@ -2936,9 +2936,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BD1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BG45" sqref="BG45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BG9" sqref="BG9:BG42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>

--- a/Unity/Assets/Config/Excel/PetConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PetConfig.xlsx
@@ -1,47 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311668A0-2D83-4701-B66F-5D77142C3296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
     <author>51Gamer_D01</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -49,7 +42,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -58,6 +51,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>用于宠物界面展示的位置</t>
@@ -66,7 +60,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>,</t>
         </r>
@@ -74,6 +68,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">在摄像机前修正位置
@@ -81,14 +76,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -96,7 +91,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0</t>
@@ -105,6 +100,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：普通
@@ -114,7 +110,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>1</t>
         </r>
@@ -122,6 +118,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：变异
@@ -131,7 +128,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>2</t>
         </r>
@@ -139,19 +136,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：神兽</t>
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1">
+    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -160,6 +159,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -167,13 +167,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者</t>
@@ -183,7 +184,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">:
 </t>
@@ -193,6 +194,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">怪物类型
@@ -203,7 +205,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>0</t>
         </r>
@@ -212,6 +214,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：通用
@@ -222,7 +225,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>1</t>
         </r>
@@ -231,6 +234,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：野兽
@@ -241,7 +245,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>2</t>
         </r>
@@ -250,6 +254,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：人物
@@ -260,7 +265,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>3</t>
         </r>
@@ -269,19 +274,21 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：恶魔</t>
         </r>
       </text>
     </comment>
-    <comment ref="AY3" authorId="0">
+    <comment ref="AY3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:
@@ -291,6 +298,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -298,13 +306,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ3" authorId="0">
+    <comment ref="AZ3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -313,6 +322,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -320,13 +330,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF3" authorId="1">
+    <comment ref="BF3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -335,6 +346,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -347,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="294">
   <si>
     <t>Id</t>
   </si>
@@ -1194,18 +1206,60 @@
   <si>
     <t>80004004;80004010;80004013;80002001;80002002;80002006;80002011;80002018;80002022;80002028</t>
   </si>
+  <si>
+    <t>0,60,250,35,0</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,60,250,40,0</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,80,250,50,0</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,60,250,30,0</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,90,250,50,0</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,90,250,60,0</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,70,250,40,0</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,80,250,45,0</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,90,250,55,0</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,90,250,40,0</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,90,250,45,35</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,80,250,40,0</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="36">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1216,17 +1270,20 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1234,225 +1291,81 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1479,259 +1392,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.79967650379955446"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.79967650379955446"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.79967650379955446"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.79967650379955446"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.79967650379955446"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.79967650379955446"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79970702230903"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79970702230903"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79970702230903"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79970702230903"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79970702230903"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79970702230903"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1742,7 +1469,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1847,399 +1574,172 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="106">
+  <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2293,130 +1793,80 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="106">
+  <cellStyles count="58">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="49"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="50"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="51"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="52"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="54"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="55"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="56"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="57"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="58"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="59"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="60"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="61"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="62"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="63"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="64"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="65"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="66"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="67"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="68"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="69"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="70"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="71"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="72"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="73"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="74"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="75"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="76"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="77"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="78"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="79"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="80"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="81"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="82"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="83"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="84"/>
-    <cellStyle name="常规 2" xfId="85"/>
-    <cellStyle name="常规 2 2" xfId="86"/>
-    <cellStyle name="常规 2 3" xfId="87"/>
-    <cellStyle name="常规 2 3 2" xfId="88"/>
-    <cellStyle name="常规 2 3 2 2" xfId="89"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="90"/>
-    <cellStyle name="常规 2 3 2 3" xfId="91"/>
-    <cellStyle name="常规 2 3 3" xfId="92"/>
-    <cellStyle name="常规 2 3 3 2" xfId="93"/>
-    <cellStyle name="常规 2 3 4" xfId="94"/>
-    <cellStyle name="常规 3" xfId="95"/>
-    <cellStyle name="常规 4" xfId="96"/>
-    <cellStyle name="常规 5" xfId="97"/>
-    <cellStyle name="常规 5 2" xfId="98"/>
-    <cellStyle name="常规 5 2 2" xfId="99"/>
-    <cellStyle name="常规 5 3" xfId="100"/>
-    <cellStyle name="常规 6" xfId="101"/>
-    <cellStyle name="注释 2" xfId="102"/>
-    <cellStyle name="注释 2 2" xfId="103"/>
-    <cellStyle name="注释 2 2 2" xfId="104"/>
-    <cellStyle name="注释 2 3" xfId="105"/>
+    <cellStyle name="常规 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="常规 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="常规 2 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="常规 2 3 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="常规 2 3 4" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="常规 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="常规 4" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="常规 5" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="常规 5 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="常规 5 2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="常规 5 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="常规 6" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="注释 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="注释 2 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="注释 2 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="注释 2 3" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
@@ -2489,6 +1939,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3559,18 +3012,17 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="H74" sqref="H74"/>
+      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3600,13 +3052,13 @@
     <col min="63" max="276" width="8.875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="3:3">
+    <row r="1" spans="3:276" s="1" customFormat="1" ht="14.25">
       <c r="C1" s="5"/>
     </row>
-    <row r="2" customHeight="1" spans="4:4">
+    <row r="2" spans="3:276" ht="13.5" customHeight="1">
       <c r="D2" s="1"/>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="3:62">
+    <row r="3" spans="3:276" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
@@ -3788,7 +3240,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:62">
+    <row r="4" spans="3:276" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
@@ -3970,7 +3422,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:62">
+    <row r="5" spans="3:276" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="6" t="s">
         <v>111</v>
       </c>
@@ -4152,7 +3604,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="6" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="9">
         <v>20001</v>
       </c>
@@ -4168,7 +3620,7 @@
       <c r="G6" s="9">
         <v>0</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="24" t="s">
         <v>116</v>
       </c>
       <c r="I6" s="10">
@@ -4548,7 +4000,7 @@
       <c r="JO6" s="19"/>
       <c r="JP6" s="19"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="7" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="9">
         <v>20002</v>
       </c>
@@ -4564,7 +4016,7 @@
       <c r="G7" s="9">
         <v>0</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="24" t="s">
         <v>116</v>
       </c>
       <c r="I7" s="10">
@@ -4944,7 +4396,7 @@
       <c r="JO7" s="19"/>
       <c r="JP7" s="19"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="8" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="9">
         <v>20003</v>
       </c>
@@ -4960,7 +4412,7 @@
       <c r="G8" s="9">
         <v>0</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="24" t="s">
         <v>116</v>
       </c>
       <c r="I8" s="10">
@@ -5340,7 +4792,7 @@
       <c r="JO8" s="19"/>
       <c r="JP8" s="19"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="9" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C9" s="9">
         <v>310101</v>
       </c>
@@ -5356,8 +4808,8 @@
       <c r="G9" s="9">
         <v>0</v>
       </c>
-      <c r="H9" s="25" t="s">
-        <v>116</v>
+      <c r="H9" s="24" t="s">
+        <v>282</v>
       </c>
       <c r="I9" s="10">
         <v>0</v>
@@ -5736,7 +5188,7 @@
       <c r="JO9" s="19"/>
       <c r="JP9" s="19"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="10" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C10" s="9">
         <v>310102</v>
       </c>
@@ -5752,8 +5204,8 @@
       <c r="G10" s="9">
         <v>0</v>
       </c>
-      <c r="H10" s="25" t="s">
-        <v>116</v>
+      <c r="H10" s="24" t="s">
+        <v>282</v>
       </c>
       <c r="I10" s="10">
         <v>0</v>
@@ -6132,7 +5584,7 @@
       <c r="JO10" s="19"/>
       <c r="JP10" s="19"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="11" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="9">
         <v>310103</v>
       </c>
@@ -6148,8 +5600,8 @@
       <c r="G11" s="9">
         <v>0</v>
       </c>
-      <c r="H11" s="25" t="s">
-        <v>116</v>
+      <c r="H11" s="24" t="s">
+        <v>282</v>
       </c>
       <c r="I11" s="10">
         <v>0</v>
@@ -6528,7 +5980,7 @@
       <c r="JO11" s="19"/>
       <c r="JP11" s="19"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="12" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C12" s="9">
         <v>310104</v>
       </c>
@@ -6544,8 +5996,8 @@
       <c r="G12" s="9">
         <v>0</v>
       </c>
-      <c r="H12" s="25" t="s">
-        <v>116</v>
+      <c r="H12" s="24" t="s">
+        <v>282</v>
       </c>
       <c r="I12" s="10">
         <v>0</v>
@@ -6924,7 +6376,7 @@
       <c r="JO12" s="19"/>
       <c r="JP12" s="19"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="13" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C13" s="9">
         <v>310105</v>
       </c>
@@ -6940,8 +6392,8 @@
       <c r="G13" s="9">
         <v>0</v>
       </c>
-      <c r="H13" s="25" t="s">
-        <v>116</v>
+      <c r="H13" s="24" t="s">
+        <v>282</v>
       </c>
       <c r="I13" s="10">
         <v>0</v>
@@ -7320,7 +6772,7 @@
       <c r="JO13" s="19"/>
       <c r="JP13" s="19"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="14" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C14" s="9">
         <v>310106</v>
       </c>
@@ -7336,8 +6788,8 @@
       <c r="G14" s="9">
         <v>0</v>
       </c>
-      <c r="H14" s="25" t="s">
-        <v>116</v>
+      <c r="H14" s="24" t="s">
+        <v>283</v>
       </c>
       <c r="I14" s="10">
         <v>0</v>
@@ -7716,7 +7168,7 @@
       <c r="JO14" s="19"/>
       <c r="JP14" s="19"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="15" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C15" s="9">
         <v>310107</v>
       </c>
@@ -7732,8 +7184,8 @@
       <c r="G15" s="9">
         <v>0</v>
       </c>
-      <c r="H15" s="25" t="s">
-        <v>116</v>
+      <c r="H15" s="24" t="s">
+        <v>283</v>
       </c>
       <c r="I15" s="10">
         <v>0</v>
@@ -8112,7 +7564,7 @@
       <c r="JO15" s="19"/>
       <c r="JP15" s="19"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="16" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C16" s="9">
         <v>320101</v>
       </c>
@@ -8128,8 +7580,8 @@
       <c r="G16" s="9">
         <v>0</v>
       </c>
-      <c r="H16" s="25" t="s">
-        <v>116</v>
+      <c r="H16" s="24" t="s">
+        <v>283</v>
       </c>
       <c r="I16" s="10">
         <v>0</v>
@@ -8508,7 +7960,7 @@
       <c r="JO16" s="19"/>
       <c r="JP16" s="19"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="17" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C17" s="9">
         <v>320102</v>
       </c>
@@ -8524,7 +7976,7 @@
       <c r="G17" s="9">
         <v>0</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="24" t="s">
         <v>116</v>
       </c>
       <c r="I17" s="10">
@@ -8904,7 +8356,7 @@
       <c r="JO17" s="19"/>
       <c r="JP17" s="19"/>
     </row>
-    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="18" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C18" s="9">
         <v>320103</v>
       </c>
@@ -8920,8 +8372,8 @@
       <c r="G18" s="9">
         <v>0</v>
       </c>
-      <c r="H18" s="25" t="s">
-        <v>116</v>
+      <c r="H18" s="24" t="s">
+        <v>283</v>
       </c>
       <c r="I18" s="10">
         <v>0</v>
@@ -9300,7 +8752,7 @@
       <c r="JO18" s="19"/>
       <c r="JP18" s="19"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="19" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C19" s="9">
         <v>320104</v>
       </c>
@@ -9316,8 +8768,8 @@
       <c r="G19" s="9">
         <v>0</v>
       </c>
-      <c r="H19" s="25" t="s">
-        <v>116</v>
+      <c r="H19" s="24" t="s">
+        <v>284</v>
       </c>
       <c r="I19" s="10">
         <v>0</v>
@@ -9696,7 +9148,7 @@
       <c r="JO19" s="19"/>
       <c r="JP19" s="19"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="20" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="9">
         <v>320105</v>
       </c>
@@ -9712,7 +9164,7 @@
       <c r="G20" s="9">
         <v>0</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="24" t="s">
         <v>116</v>
       </c>
       <c r="I20" s="10">
@@ -10092,7 +9544,7 @@
       <c r="JO20" s="19"/>
       <c r="JP20" s="19"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="21" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C21" s="9">
         <v>320106</v>
       </c>
@@ -10108,8 +9560,8 @@
       <c r="G21" s="9">
         <v>0</v>
       </c>
-      <c r="H21" s="25" t="s">
-        <v>116</v>
+      <c r="H21" s="24" t="s">
+        <v>285</v>
       </c>
       <c r="I21" s="10">
         <v>0</v>
@@ -10488,7 +9940,7 @@
       <c r="JO21" s="19"/>
       <c r="JP21" s="19"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="22" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C22" s="9">
         <v>320107</v>
       </c>
@@ -10504,8 +9956,8 @@
       <c r="G22" s="9">
         <v>0</v>
       </c>
-      <c r="H22" s="25" t="s">
-        <v>116</v>
+      <c r="H22" s="24" t="s">
+        <v>282</v>
       </c>
       <c r="I22" s="10">
         <v>0</v>
@@ -10884,7 +10336,7 @@
       <c r="JO22" s="19"/>
       <c r="JP22" s="19"/>
     </row>
-    <row r="23" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="23" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C23" s="9">
         <v>330101</v>
       </c>
@@ -10900,8 +10352,8 @@
       <c r="G23" s="9">
         <v>0</v>
       </c>
-      <c r="H23" s="25" t="s">
-        <v>116</v>
+      <c r="H23" s="24" t="s">
+        <v>286</v>
       </c>
       <c r="I23" s="10">
         <v>0</v>
@@ -11280,7 +10732,7 @@
       <c r="JO23" s="19"/>
       <c r="JP23" s="19"/>
     </row>
-    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="24" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C24" s="9">
         <v>330102</v>
       </c>
@@ -11296,8 +10748,8 @@
       <c r="G24" s="9">
         <v>0</v>
       </c>
-      <c r="H24" s="25" t="s">
-        <v>116</v>
+      <c r="H24" s="24" t="s">
+        <v>284</v>
       </c>
       <c r="I24" s="10">
         <v>0</v>
@@ -11676,7 +11128,7 @@
       <c r="JO24" s="19"/>
       <c r="JP24" s="19"/>
     </row>
-    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="25" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C25" s="9">
         <v>330103</v>
       </c>
@@ -11692,8 +11144,8 @@
       <c r="G25" s="9">
         <v>0</v>
       </c>
-      <c r="H25" s="25" t="s">
-        <v>116</v>
+      <c r="H25" s="24" t="s">
+        <v>284</v>
       </c>
       <c r="I25" s="10">
         <v>0</v>
@@ -12072,7 +11524,7 @@
       <c r="JO25" s="19"/>
       <c r="JP25" s="19"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="26" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C26" s="9">
         <v>330104</v>
       </c>
@@ -12088,8 +11540,8 @@
       <c r="G26" s="9">
         <v>0</v>
       </c>
-      <c r="H26" s="25" t="s">
-        <v>116</v>
+      <c r="H26" s="24" t="s">
+        <v>282</v>
       </c>
       <c r="I26" s="10">
         <v>0</v>
@@ -12468,7 +11920,7 @@
       <c r="JO26" s="19"/>
       <c r="JP26" s="19"/>
     </row>
-    <row r="27" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="27" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C27" s="9">
         <v>330105</v>
       </c>
@@ -12484,8 +11936,8 @@
       <c r="G27" s="9">
         <v>0</v>
       </c>
-      <c r="H27" s="25" t="s">
-        <v>116</v>
+      <c r="H27" s="24" t="s">
+        <v>282</v>
       </c>
       <c r="I27" s="10">
         <v>0</v>
@@ -12864,7 +12316,7 @@
       <c r="JO27" s="19"/>
       <c r="JP27" s="19"/>
     </row>
-    <row r="28" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="28" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C28" s="9">
         <v>330106</v>
       </c>
@@ -12880,8 +12332,8 @@
       <c r="G28" s="9">
         <v>0</v>
       </c>
-      <c r="H28" s="25" t="s">
-        <v>116</v>
+      <c r="H28" s="24" t="s">
+        <v>287</v>
       </c>
       <c r="I28" s="10">
         <v>0</v>
@@ -13260,7 +12712,7 @@
       <c r="JO28" s="19"/>
       <c r="JP28" s="19"/>
     </row>
-    <row r="29" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="29" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C29" s="9">
         <v>330107</v>
       </c>
@@ -13276,8 +12728,8 @@
       <c r="G29" s="9">
         <v>0</v>
       </c>
-      <c r="H29" s="25" t="s">
-        <v>116</v>
+      <c r="H29" s="24" t="s">
+        <v>286</v>
       </c>
       <c r="I29" s="10">
         <v>0</v>
@@ -13656,7 +13108,7 @@
       <c r="JO29" s="19"/>
       <c r="JP29" s="19"/>
     </row>
-    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="30" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C30" s="9">
         <v>340101</v>
       </c>
@@ -13672,8 +13124,8 @@
       <c r="G30" s="9">
         <v>0</v>
       </c>
-      <c r="H30" s="25" t="s">
-        <v>116</v>
+      <c r="H30" s="24" t="s">
+        <v>288</v>
       </c>
       <c r="I30" s="10">
         <v>0</v>
@@ -14052,7 +13504,7 @@
       <c r="JO30" s="19"/>
       <c r="JP30" s="19"/>
     </row>
-    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="31" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C31" s="9">
         <v>340102</v>
       </c>
@@ -14068,8 +13520,8 @@
       <c r="G31" s="9">
         <v>0</v>
       </c>
-      <c r="H31" s="25" t="s">
-        <v>116</v>
+      <c r="H31" s="24" t="s">
+        <v>289</v>
       </c>
       <c r="I31" s="10">
         <v>0</v>
@@ -14448,7 +13900,7 @@
       <c r="JO31" s="19"/>
       <c r="JP31" s="19"/>
     </row>
-    <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="32" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C32" s="9">
         <v>340103</v>
       </c>
@@ -14464,8 +13916,8 @@
       <c r="G32" s="9">
         <v>0</v>
       </c>
-      <c r="H32" s="25" t="s">
-        <v>116</v>
+      <c r="H32" s="24" t="s">
+        <v>290</v>
       </c>
       <c r="I32" s="10">
         <v>0</v>
@@ -14844,7 +14296,7 @@
       <c r="JO32" s="19"/>
       <c r="JP32" s="19"/>
     </row>
-    <row r="33" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="33" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C33" s="9">
         <v>340104</v>
       </c>
@@ -14860,8 +14312,8 @@
       <c r="G33" s="9">
         <v>0</v>
       </c>
-      <c r="H33" s="25" t="s">
-        <v>116</v>
+      <c r="H33" s="24" t="s">
+        <v>282</v>
       </c>
       <c r="I33" s="10">
         <v>0</v>
@@ -15240,7 +14692,7 @@
       <c r="JO33" s="19"/>
       <c r="JP33" s="19"/>
     </row>
-    <row r="34" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="34" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C34" s="9">
         <v>340105</v>
       </c>
@@ -15256,8 +14708,8 @@
       <c r="G34" s="9">
         <v>0</v>
       </c>
-      <c r="H34" s="25" t="s">
-        <v>116</v>
+      <c r="H34" s="24" t="s">
+        <v>283</v>
       </c>
       <c r="I34" s="10">
         <v>0</v>
@@ -15636,7 +15088,7 @@
       <c r="JO34" s="19"/>
       <c r="JP34" s="19"/>
     </row>
-    <row r="35" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="35" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C35" s="9">
         <v>340106</v>
       </c>
@@ -15652,8 +15104,8 @@
       <c r="G35" s="9">
         <v>0</v>
       </c>
-      <c r="H35" s="25" t="s">
-        <v>116</v>
+      <c r="H35" s="24" t="s">
+        <v>288</v>
       </c>
       <c r="I35" s="10">
         <v>0</v>
@@ -16032,7 +15484,7 @@
       <c r="JO35" s="19"/>
       <c r="JP35" s="19"/>
     </row>
-    <row r="36" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="36" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C36" s="9">
         <v>340107</v>
       </c>
@@ -16048,8 +15500,8 @@
       <c r="G36" s="9">
         <v>0</v>
       </c>
-      <c r="H36" s="25" t="s">
-        <v>116</v>
+      <c r="H36" s="24" t="s">
+        <v>283</v>
       </c>
       <c r="I36" s="10">
         <v>0</v>
@@ -16428,7 +15880,7 @@
       <c r="JO36" s="19"/>
       <c r="JP36" s="19"/>
     </row>
-    <row r="37" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="37" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C37" s="9">
         <v>350101</v>
       </c>
@@ -16444,8 +15896,8 @@
       <c r="G37" s="9">
         <v>0</v>
       </c>
-      <c r="H37" s="25" t="s">
-        <v>116</v>
+      <c r="H37" s="24" t="s">
+        <v>291</v>
       </c>
       <c r="I37" s="10">
         <v>0</v>
@@ -16824,7 +16276,7 @@
       <c r="JO37" s="19"/>
       <c r="JP37" s="19"/>
     </row>
-    <row r="38" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="38" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C38" s="9">
         <v>350102</v>
       </c>
@@ -16840,8 +16292,8 @@
       <c r="G38" s="9">
         <v>0</v>
       </c>
-      <c r="H38" s="25" t="s">
-        <v>116</v>
+      <c r="H38" s="24" t="s">
+        <v>285</v>
       </c>
       <c r="I38" s="10">
         <v>0</v>
@@ -17220,7 +16672,7 @@
       <c r="JO38" s="19"/>
       <c r="JP38" s="19"/>
     </row>
-    <row r="39" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="39" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C39" s="9">
         <v>350103</v>
       </c>
@@ -17236,8 +16688,8 @@
       <c r="G39" s="9">
         <v>0</v>
       </c>
-      <c r="H39" s="25" t="s">
-        <v>116</v>
+      <c r="H39" s="24" t="s">
+        <v>282</v>
       </c>
       <c r="I39" s="10">
         <v>0</v>
@@ -17616,7 +17068,7 @@
       <c r="JO39" s="19"/>
       <c r="JP39" s="19"/>
     </row>
-    <row r="40" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="40" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C40" s="9">
         <v>350104</v>
       </c>
@@ -17632,8 +17084,8 @@
       <c r="G40" s="9">
         <v>0</v>
       </c>
-      <c r="H40" s="25" t="s">
-        <v>116</v>
+      <c r="H40" s="24" t="s">
+        <v>287</v>
       </c>
       <c r="I40" s="10">
         <v>0</v>
@@ -18012,7 +17464,7 @@
       <c r="JO40" s="19"/>
       <c r="JP40" s="19"/>
     </row>
-    <row r="41" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="41" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C41" s="9">
         <v>350105</v>
       </c>
@@ -18028,8 +17480,8 @@
       <c r="G41" s="9">
         <v>0</v>
       </c>
-      <c r="H41" s="25" t="s">
-        <v>116</v>
+      <c r="H41" s="24" t="s">
+        <v>289</v>
       </c>
       <c r="I41" s="10">
         <v>0</v>
@@ -18408,7 +17860,7 @@
       <c r="JO41" s="19"/>
       <c r="JP41" s="19"/>
     </row>
-    <row r="42" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="42" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C42" s="9">
         <v>350106</v>
       </c>
@@ -18424,8 +17876,8 @@
       <c r="G42" s="9">
         <v>0</v>
       </c>
-      <c r="H42" s="25" t="s">
-        <v>116</v>
+      <c r="H42" s="24" t="s">
+        <v>289</v>
       </c>
       <c r="I42" s="10">
         <v>0</v>
@@ -18804,7 +18256,7 @@
       <c r="JO42" s="19"/>
       <c r="JP42" s="19"/>
     </row>
-    <row r="43" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="43" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C43" s="9">
         <v>400001</v>
       </c>
@@ -18820,8 +18272,8 @@
       <c r="G43" s="9">
         <v>0</v>
       </c>
-      <c r="H43" s="25" t="s">
-        <v>116</v>
+      <c r="H43" s="24" t="s">
+        <v>292</v>
       </c>
       <c r="I43" s="10">
         <v>0</v>
@@ -19200,7 +18652,7 @@
       <c r="JO43" s="19"/>
       <c r="JP43" s="19"/>
     </row>
-    <row r="44" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="44" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C44" s="9">
         <v>400002</v>
       </c>
@@ -19216,8 +18668,8 @@
       <c r="G44" s="9">
         <v>0</v>
       </c>
-      <c r="H44" s="25" t="s">
-        <v>116</v>
+      <c r="H44" s="24" t="s">
+        <v>282</v>
       </c>
       <c r="I44" s="10">
         <v>0</v>
@@ -19596,7 +19048,7 @@
       <c r="JO44" s="19"/>
       <c r="JP44" s="19"/>
     </row>
-    <row r="45" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="45" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C45" s="9">
         <v>400003</v>
       </c>
@@ -19612,8 +19064,8 @@
       <c r="G45" s="9">
         <v>0</v>
       </c>
-      <c r="H45" s="25" t="s">
-        <v>116</v>
+      <c r="H45" s="24" t="s">
+        <v>291</v>
       </c>
       <c r="I45" s="10">
         <v>0</v>
@@ -19992,7 +19444,7 @@
       <c r="JO45" s="19"/>
       <c r="JP45" s="19"/>
     </row>
-    <row r="46" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="46" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C46" s="9">
         <v>400004</v>
       </c>
@@ -20008,8 +19460,8 @@
       <c r="G46" s="9">
         <v>0</v>
       </c>
-      <c r="H46" s="25" t="s">
-        <v>116</v>
+      <c r="H46" s="24" t="s">
+        <v>288</v>
       </c>
       <c r="I46" s="10">
         <v>0</v>
@@ -20388,7 +19840,7 @@
       <c r="JO46" s="19"/>
       <c r="JP46" s="19"/>
     </row>
-    <row r="47" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="47" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C47" s="9">
         <v>400005</v>
       </c>
@@ -20404,8 +19856,8 @@
       <c r="G47" s="9">
         <v>0</v>
       </c>
-      <c r="H47" s="25" t="s">
-        <v>116</v>
+      <c r="H47" s="24" t="s">
+        <v>288</v>
       </c>
       <c r="I47" s="10">
         <v>0</v>
@@ -20784,7 +20236,7 @@
       <c r="JO47" s="19"/>
       <c r="JP47" s="19"/>
     </row>
-    <row r="48" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="48" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C48" s="9">
         <v>400006</v>
       </c>
@@ -20800,8 +20252,8 @@
       <c r="G48" s="9">
         <v>0</v>
       </c>
-      <c r="H48" s="25" t="s">
-        <v>116</v>
+      <c r="H48" s="24" t="s">
+        <v>293</v>
       </c>
       <c r="I48" s="10">
         <v>0</v>
@@ -21180,7 +20632,7 @@
       <c r="JO48" s="19"/>
       <c r="JP48" s="19"/>
     </row>
-    <row r="49" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="49" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C49" s="9">
         <v>400007</v>
       </c>
@@ -21196,8 +20648,8 @@
       <c r="G49" s="9">
         <v>0</v>
       </c>
-      <c r="H49" s="25" t="s">
-        <v>116</v>
+      <c r="H49" s="24" t="s">
+        <v>293</v>
       </c>
       <c r="I49" s="10">
         <v>0</v>
@@ -21576,7 +21028,7 @@
       <c r="JO49" s="19"/>
       <c r="JP49" s="19"/>
     </row>
-    <row r="50" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="50" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C50" s="9">
         <v>400008</v>
       </c>
@@ -21592,8 +21044,8 @@
       <c r="G50" s="9">
         <v>0</v>
       </c>
-      <c r="H50" s="25" t="s">
-        <v>116</v>
+      <c r="H50" s="24" t="s">
+        <v>282</v>
       </c>
       <c r="I50" s="10">
         <v>0</v>
@@ -21972,7 +21424,7 @@
       <c r="JO50" s="19"/>
       <c r="JP50" s="19"/>
     </row>
-    <row r="51" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="51" spans="3:276" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C51" s="11">
         <v>1000101</v>
       </c>
@@ -21988,7 +21440,7 @@
       <c r="G51" s="11">
         <v>0</v>
       </c>
-      <c r="H51" s="25" t="s">
+      <c r="H51" s="24" t="s">
         <v>116</v>
       </c>
       <c r="I51" s="12">
@@ -22368,7 +21820,7 @@
       <c r="JO51" s="22"/>
       <c r="JP51" s="22"/>
     </row>
-    <row r="52" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="52" spans="3:276" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C52" s="11">
         <v>1000201</v>
       </c>
@@ -22384,7 +21836,7 @@
       <c r="G52" s="11">
         <v>0</v>
       </c>
-      <c r="H52" s="25" t="s">
+      <c r="H52" s="24" t="s">
         <v>116</v>
       </c>
       <c r="I52" s="12">
@@ -22764,7 +22216,7 @@
       <c r="JO52" s="22"/>
       <c r="JP52" s="22"/>
     </row>
-    <row r="53" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="53" spans="3:276" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C53" s="11">
         <v>1000301</v>
       </c>
@@ -22780,7 +22232,7 @@
       <c r="G53" s="11">
         <v>0</v>
       </c>
-      <c r="H53" s="25" t="s">
+      <c r="H53" s="24" t="s">
         <v>116</v>
       </c>
       <c r="I53" s="12">
@@ -23160,7 +22612,7 @@
       <c r="JO53" s="22"/>
       <c r="JP53" s="22"/>
     </row>
-    <row r="54" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="54" spans="3:276" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C54" s="11">
         <v>1000401</v>
       </c>
@@ -23176,7 +22628,7 @@
       <c r="G54" s="11">
         <v>0</v>
       </c>
-      <c r="H54" s="25" t="s">
+      <c r="H54" s="24" t="s">
         <v>116</v>
       </c>
       <c r="I54" s="12">
@@ -23240,7 +22692,7 @@
         <v>0.95</v>
       </c>
       <c r="AC54" s="12">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD54" s="12">
         <v>5000</v>
@@ -23556,7 +23008,7 @@
       <c r="JO54" s="22"/>
       <c r="JP54" s="22"/>
     </row>
-    <row r="55" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="55" spans="3:276" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C55" s="11">
         <v>1000501</v>
       </c>
@@ -23572,7 +23024,7 @@
       <c r="G55" s="11">
         <v>0</v>
       </c>
-      <c r="H55" s="25" t="s">
+      <c r="H55" s="24" t="s">
         <v>116</v>
       </c>
       <c r="I55" s="12">
@@ -23636,7 +23088,7 @@
         <v>0.95</v>
       </c>
       <c r="AC55" s="12">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD55" s="12">
         <v>5000</v>
@@ -23678,7 +23130,7 @@
         <v>6</v>
       </c>
       <c r="AQ55" s="12">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR55" s="12">
         <v>6</v>
@@ -23722,7 +23174,7 @@
       <c r="BE55" s="12">
         <v>2000102</v>
       </c>
-      <c r="BF55" s="26" t="s">
+      <c r="BF55" s="25" t="s">
         <v>227</v>
       </c>
       <c r="BG55" s="20" t="s">
@@ -23952,7 +23404,7 @@
       <c r="JO55" s="22"/>
       <c r="JP55" s="22"/>
     </row>
-    <row r="56" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="56" spans="3:276" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C56" s="11">
         <v>1000601</v>
       </c>
@@ -23968,7 +23420,7 @@
       <c r="G56" s="11">
         <v>0</v>
       </c>
-      <c r="H56" s="25" t="s">
+      <c r="H56" s="24" t="s">
         <v>116</v>
       </c>
       <c r="I56" s="12">
@@ -24032,7 +23484,7 @@
         <v>0.95</v>
       </c>
       <c r="AC56" s="12">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD56" s="12">
         <v>5000</v>
@@ -24348,7 +23800,7 @@
       <c r="JO56" s="22"/>
       <c r="JP56" s="22"/>
     </row>
-    <row r="57" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="57" spans="3:276" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C57" s="11">
         <v>1000701</v>
       </c>
@@ -24364,7 +23816,7 @@
       <c r="G57" s="11">
         <v>0</v>
       </c>
-      <c r="H57" s="25" t="s">
+      <c r="H57" s="24" t="s">
         <v>116</v>
       </c>
       <c r="I57" s="12">
@@ -24428,7 +23880,7 @@
         <v>1</v>
       </c>
       <c r="AC57" s="12">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD57" s="12">
         <v>5000</v>
@@ -24744,7 +24196,7 @@
       <c r="JO57" s="22"/>
       <c r="JP57" s="22"/>
     </row>
-    <row r="58" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="58" spans="3:276" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C58" s="11">
         <v>1000801</v>
       </c>
@@ -24760,7 +24212,7 @@
       <c r="G58" s="11">
         <v>0</v>
       </c>
-      <c r="H58" s="25" t="s">
+      <c r="H58" s="24" t="s">
         <v>116</v>
       </c>
       <c r="I58" s="12">
@@ -24824,7 +24276,7 @@
         <v>1</v>
       </c>
       <c r="AC58" s="12">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD58" s="12">
         <v>5000</v>
@@ -25140,7 +24592,7 @@
       <c r="JO58" s="22"/>
       <c r="JP58" s="22"/>
     </row>
-    <row r="59" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="59" spans="3:276" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C59" s="11">
         <v>1000901</v>
       </c>
@@ -25156,7 +24608,7 @@
       <c r="G59" s="11">
         <v>0</v>
       </c>
-      <c r="H59" s="25" t="s">
+      <c r="H59" s="24" t="s">
         <v>116</v>
       </c>
       <c r="I59" s="12">
@@ -25220,7 +24672,7 @@
         <v>1</v>
       </c>
       <c r="AC59" s="12">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD59" s="12">
         <v>5000</v>
@@ -25536,7 +24988,7 @@
       <c r="JO59" s="22"/>
       <c r="JP59" s="22"/>
     </row>
-    <row r="60" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="60" spans="3:276" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C60" s="11">
         <v>1001001</v>
       </c>
@@ -25552,7 +25004,7 @@
       <c r="G60" s="11">
         <v>0</v>
       </c>
-      <c r="H60" s="25" t="s">
+      <c r="H60" s="24" t="s">
         <v>116</v>
       </c>
       <c r="I60" s="12">
@@ -25932,7 +25384,7 @@
       <c r="JO60" s="22"/>
       <c r="JP60" s="22"/>
     </row>
-    <row r="61" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="61" spans="3:276" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C61" s="11">
         <v>1001101</v>
       </c>
@@ -25948,7 +25400,7 @@
       <c r="G61" s="11">
         <v>0</v>
       </c>
-      <c r="H61" s="25" t="s">
+      <c r="H61" s="24" t="s">
         <v>116</v>
       </c>
       <c r="I61" s="12">
@@ -26054,7 +25506,7 @@
         <v>6</v>
       </c>
       <c r="AQ61" s="12">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR61" s="12">
         <v>6</v>
@@ -26328,7 +25780,7 @@
       <c r="JO61" s="22"/>
       <c r="JP61" s="22"/>
     </row>
-    <row r="62" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="62" spans="3:276" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C62" s="11">
         <v>1001201</v>
       </c>
@@ -26344,7 +25796,7 @@
       <c r="G62" s="11">
         <v>0</v>
       </c>
-      <c r="H62" s="25" t="s">
+      <c r="H62" s="24" t="s">
         <v>116</v>
       </c>
       <c r="I62" s="12">
@@ -26450,7 +25902,7 @@
         <v>6</v>
       </c>
       <c r="AQ62" s="12">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR62" s="12">
         <v>6</v>
@@ -26724,7 +26176,7 @@
       <c r="JO62" s="22"/>
       <c r="JP62" s="22"/>
     </row>
-    <row r="63" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="63" spans="3:276" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C63" s="11">
         <v>1001301</v>
       </c>
@@ -26740,7 +26192,7 @@
       <c r="G63" s="11">
         <v>0</v>
       </c>
-      <c r="H63" s="25" t="s">
+      <c r="H63" s="24" t="s">
         <v>116</v>
       </c>
       <c r="I63" s="12">
@@ -27120,7 +26572,7 @@
       <c r="JO63" s="22"/>
       <c r="JP63" s="22"/>
     </row>
-    <row r="64" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="64" spans="3:276" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C64" s="11">
         <v>1001401</v>
       </c>
@@ -27136,7 +26588,7 @@
       <c r="G64" s="11">
         <v>0</v>
       </c>
-      <c r="H64" s="25" t="s">
+      <c r="H64" s="24" t="s">
         <v>116</v>
       </c>
       <c r="I64" s="12">
@@ -27242,7 +26694,7 @@
         <v>6</v>
       </c>
       <c r="AQ64" s="12">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR64" s="12">
         <v>6</v>
@@ -27516,7 +26968,7 @@
       <c r="JO64" s="22"/>
       <c r="JP64" s="22"/>
     </row>
-    <row r="65" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="65" spans="3:276" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C65" s="11">
         <v>1009101</v>
       </c>
@@ -27532,7 +26984,7 @@
       <c r="G65" s="11">
         <v>0</v>
       </c>
-      <c r="H65" s="25" t="s">
+      <c r="H65" s="24" t="s">
         <v>116</v>
       </c>
       <c r="I65" s="12">
@@ -27912,7 +27364,7 @@
       <c r="JO65" s="22"/>
       <c r="JP65" s="22"/>
     </row>
-    <row r="66" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="66" spans="3:276" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C66" s="11">
         <v>1009201</v>
       </c>
@@ -27928,7 +27380,7 @@
       <c r="G66" s="11">
         <v>0</v>
       </c>
-      <c r="H66" s="25" t="s">
+      <c r="H66" s="24" t="s">
         <v>116</v>
       </c>
       <c r="I66" s="12">
@@ -28308,7 +27760,7 @@
       <c r="JO66" s="22"/>
       <c r="JP66" s="22"/>
     </row>
-    <row r="67" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="67" spans="3:276" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C67" s="11">
         <v>1009301</v>
       </c>
@@ -28324,7 +27776,7 @@
       <c r="G67" s="11">
         <v>0</v>
       </c>
-      <c r="H67" s="25" t="s">
+      <c r="H67" s="24" t="s">
         <v>116</v>
       </c>
       <c r="I67" s="12">
@@ -28430,7 +27882,7 @@
         <v>6</v>
       </c>
       <c r="AQ67" s="12">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR67" s="12">
         <v>6</v>
@@ -28704,7 +28156,7 @@
       <c r="JO67" s="22"/>
       <c r="JP67" s="22"/>
     </row>
-    <row r="68" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="68" spans="3:276" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C68" s="11">
         <v>2000001</v>
       </c>
@@ -28720,7 +28172,7 @@
       <c r="G68" s="11">
         <v>0</v>
       </c>
-      <c r="H68" s="25" t="s">
+      <c r="H68" s="24" t="s">
         <v>116</v>
       </c>
       <c r="I68" s="12">
@@ -28868,7 +28320,7 @@
       <c r="BE68" s="12">
         <v>2000101</v>
       </c>
-      <c r="BF68" s="27" t="s">
+      <c r="BF68" s="26" t="s">
         <v>277</v>
       </c>
       <c r="BG68" s="12">
@@ -28877,7 +28329,7 @@
       <c r="BH68" s="21">
         <v>200001</v>
       </c>
-      <c r="BI68" s="24">
+      <c r="BI68" s="23">
         <v>100</v>
       </c>
       <c r="BJ68" s="12">
@@ -29098,7 +28550,7 @@
       <c r="JO68" s="22"/>
       <c r="JP68" s="22"/>
     </row>
-    <row r="69" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="69" spans="3:276" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C69" s="11">
         <v>2000002</v>
       </c>
@@ -29114,7 +28566,7 @@
       <c r="G69" s="11">
         <v>0</v>
       </c>
-      <c r="H69" s="25" t="s">
+      <c r="H69" s="24" t="s">
         <v>116</v>
       </c>
       <c r="I69" s="12">
@@ -29220,7 +28672,7 @@
         <v>6</v>
       </c>
       <c r="AQ69" s="12">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR69" s="12">
         <v>6</v>
@@ -29262,7 +28714,7 @@
       <c r="BE69" s="12">
         <v>2000102</v>
       </c>
-      <c r="BF69" s="26" t="s">
+      <c r="BF69" s="25" t="s">
         <v>279</v>
       </c>
       <c r="BG69" s="12">
@@ -29271,7 +28723,7 @@
       <c r="BH69" s="21">
         <v>200002</v>
       </c>
-      <c r="BI69" s="24">
+      <c r="BI69" s="23">
         <v>100</v>
       </c>
       <c r="BJ69" s="12">
@@ -29492,7 +28944,7 @@
       <c r="JO69" s="22"/>
       <c r="JP69" s="22"/>
     </row>
-    <row r="70" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="70" spans="3:276" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C70" s="11">
         <v>2000003</v>
       </c>
@@ -29508,7 +28960,7 @@
       <c r="G70" s="11">
         <v>0</v>
       </c>
-      <c r="H70" s="25" t="s">
+      <c r="H70" s="24" t="s">
         <v>116</v>
       </c>
       <c r="I70" s="12">
@@ -29656,16 +29108,16 @@
       <c r="BE70" s="12">
         <v>2000101</v>
       </c>
-      <c r="BF70" s="26" t="s">
+      <c r="BF70" s="25" t="s">
         <v>281</v>
       </c>
       <c r="BG70" s="12">
         <v>0</v>
       </c>
-      <c r="BH70" s="24">
+      <c r="BH70" s="23">
         <v>200003</v>
       </c>
-      <c r="BI70" s="24">
+      <c r="BI70" s="23">
         <v>100</v>
       </c>
       <c r="BJ70" s="12">
@@ -29887,11 +29339,12 @@
       <c r="JP70" s="22"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/PetConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PetConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535C2E82-7E46-42B1-BDED-879F340ED72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2FE2C5-5110-4E57-A7B7-262034556852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -2772,8 +2772,8 @@
   <dimension ref="C1:JP50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3375,7 +3375,7 @@
         <v>116</v>
       </c>
       <c r="I6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="9">
         <v>1</v>
@@ -3771,7 +3771,7 @@
         <v>116</v>
       </c>
       <c r="I7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="9">
         <v>1</v>
@@ -4167,7 +4167,7 @@
         <v>116</v>
       </c>
       <c r="I8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="9">
         <v>1</v>

--- a/Unity/Assets/Config/Excel/PetConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PetConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2FE2C5-5110-4E57-A7B7-262034556852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2970A8B4-54A5-43EB-9857-539A7B5B73F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -2772,8 +2772,8 @@
   <dimension ref="C1:JP50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>

--- a/Unity/Assets/Config/Excel/PetConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PetConfig.xlsx
@@ -1,40 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2970A8B4-54A5-43EB-9857-539A7B5B73F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
     <author>51Gamer_D01</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -42,7 +49,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -51,7 +58,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>用于宠物界面展示的位置</t>
@@ -60,7 +66,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>,</t>
         </r>
@@ -68,7 +74,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">在摄像机前修正位置
@@ -76,14 +81,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -91,7 +96,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 0</t>
@@ -100,17 +105,16 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">：普通
+          <t xml:space="preserve">：普通 （野外 变异 宝宝）  
 </t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -118,39 +122,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：变异
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：神兽</t>
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="J3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -159,7 +143,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -167,14 +150,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="O3" authorId="2">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者</t>
@@ -184,7 +166,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">:
 </t>
@@ -194,7 +176,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">怪物类型
@@ -205,7 +186,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>0</t>
         </r>
@@ -214,7 +195,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：通用
@@ -225,7 +205,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -234,7 +214,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：野兽
@@ -245,7 +224,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>2</t>
         </r>
@@ -254,7 +233,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：人物
@@ -265,7 +243,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>3</t>
         </r>
@@ -274,21 +252,19 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：恶魔</t>
         </r>
       </text>
     </comment>
-    <comment ref="AY3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="AY3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:
@@ -298,7 +274,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -306,14 +281,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="AZ3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -322,7 +296,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -330,14 +303,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="BF3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -346,7 +318,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -739,6 +710,9 @@
     <t>史莱姆</t>
   </si>
   <si>
+    <t>0,60,250,35,0</t>
+  </si>
+  <si>
     <t>2301011,0.5;2301005,0.15;2303010,0.15</t>
   </si>
   <si>
@@ -769,6 +743,9 @@
     <t>森林蜘蛛</t>
   </si>
   <si>
+    <t>0,60,250,40,0</t>
+  </si>
+  <si>
     <t>2301004,0.3;2303060,0.15</t>
   </si>
   <si>
@@ -799,6 +776,9 @@
     <t>荒漠鹰</t>
   </si>
   <si>
+    <t>0,80,250,50,0</t>
+  </si>
+  <si>
     <t>2301002,0.3;2303110,0.152303040,0.15</t>
   </si>
   <si>
@@ -811,6 +791,9 @@
     <t>遗迹火焰</t>
   </si>
   <si>
+    <t>0,60,250,30,0</t>
+  </si>
+  <si>
     <t>2301011,0.5;2301009,0.3;2303130,0.15</t>
   </si>
   <si>
@@ -823,6 +806,9 @@
     <t>螃蟹护卫</t>
   </si>
   <si>
+    <t>0,90,250,50,0</t>
+  </si>
+  <si>
     <t>2301011,0.5;2301013,0.3;2303150,0.15</t>
   </si>
   <si>
@@ -853,6 +839,9 @@
     <t>兽人骑兵</t>
   </si>
   <si>
+    <t>0,90,250,60,0</t>
+  </si>
+  <si>
     <t>2301016,0.5;2302007,0.3;2303200,0.15</t>
   </si>
   <si>
@@ -865,18 +854,27 @@
     <t>冰灵蜘蛛</t>
   </si>
   <si>
+    <t>0,70,250,40,0</t>
+  </si>
+  <si>
     <t>2301018,0.5;2302005,0.3;2303220,0.15</t>
   </si>
   <si>
     <t>雪狼</t>
   </si>
   <si>
+    <t>0,80,250,45,0</t>
+  </si>
+  <si>
     <t>2301019,0.5;2303230,0.152303120,0.15</t>
   </si>
   <si>
     <t>冰灵山羊</t>
   </si>
   <si>
+    <t>0,90,250,55,0</t>
+  </si>
+  <si>
     <t>2301005,0.5;2301020,0.3;2303240,0.15</t>
   </si>
   <si>
@@ -907,6 +905,9 @@
     <t>精灵蝴蝶</t>
   </si>
   <si>
+    <t>0,90,250,40,0</t>
+  </si>
+  <si>
     <t>2301005,0.5;2302003,0.3;2303290,0.15</t>
   </si>
   <si>
@@ -943,6 +944,9 @@
     <t>邪恶鳄鱼</t>
   </si>
   <si>
+    <t>0,90,250,45,35</t>
+  </si>
+  <si>
     <t>2301014,0.5;2302001,0.3;2302019,0.32304020,0.3</t>
   </si>
   <si>
@@ -973,6 +977,9 @@
     <t>天空守卫</t>
   </si>
   <si>
+    <t>0,80,250,40,0</t>
+  </si>
+  <si>
     <t>2301019,0.5;2302007,0.3;2303210,0.32304030,0.3</t>
   </si>
   <si>
@@ -986,61 +993,19 @@
   </si>
   <si>
     <t>2301005,0.5;2302018,0.3;2302006,0.32304050,0.3</t>
-  </si>
-  <si>
-    <t>0,60,250,35,0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,60,250,40,0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,80,250,50,0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,60,250,30,0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,90,250,50,0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,90,250,60,0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,70,250,40,0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,80,250,45,0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,90,250,55,0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,90,250,40,0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,90,250,45,35</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,80,250,40,0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1051,13 +1016,11 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1065,81 +1028,225 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1166,73 +1273,259 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79967650379955446"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79967650379955446"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79967650379955446"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79967650379955446"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79967650379955446"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79967650379955446"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799676503799554"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799676503799554"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799676503799554"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799676503799554"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799676503799554"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799676503799554"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,7 +1536,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1348,172 +1641,399 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="48" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="48" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="48" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="48" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1553,71 +2073,118 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="58">
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+  <cellStyles count="106">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="常规 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="常规 2 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="常规 2 3 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="常规 2 3 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="常规 2 3 2 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="常规 2 3 3" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="常规 2 3 3 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="常规 2 3 4" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="常规 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="常规 4" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="常规 5" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="常规 5 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="常规 5 2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="常规 5 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="常规 6" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="注释 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="注释 2 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="注释 2 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="注释 2 3" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="49"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="50"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="51"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="52"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="54"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="55"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="56"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="57"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="58"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="59"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="60"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="61"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="62"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="63"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="64"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="65"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="66"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="67"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="68"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="69"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="70"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="71"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="72"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="73"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="74"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="75"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="76"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="77"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="78"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="79"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="80"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="81"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="82"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="83"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="84"/>
+    <cellStyle name="常规 2" xfId="85"/>
+    <cellStyle name="常规 2 2" xfId="86"/>
+    <cellStyle name="常规 2 3" xfId="87"/>
+    <cellStyle name="常规 2 3 2" xfId="88"/>
+    <cellStyle name="常规 2 3 2 2" xfId="89"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="90"/>
+    <cellStyle name="常规 2 3 2 3" xfId="91"/>
+    <cellStyle name="常规 2 3 3" xfId="92"/>
+    <cellStyle name="常规 2 3 3 2" xfId="93"/>
+    <cellStyle name="常规 2 3 4" xfId="94"/>
+    <cellStyle name="常规 3" xfId="95"/>
+    <cellStyle name="常规 4" xfId="96"/>
+    <cellStyle name="常规 5" xfId="97"/>
+    <cellStyle name="常规 5 2" xfId="98"/>
+    <cellStyle name="常规 5 2 2" xfId="99"/>
+    <cellStyle name="常规 5 3" xfId="100"/>
+    <cellStyle name="常规 6" xfId="101"/>
+    <cellStyle name="注释 2" xfId="102"/>
+    <cellStyle name="注释 2 2" xfId="103"/>
+    <cellStyle name="注释 2 2 2" xfId="104"/>
+    <cellStyle name="注释 2 3" xfId="105"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
@@ -1690,9 +2257,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2763,17 +3327,18 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C1:JP50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N46" sqref="N46"/>
+      <pane ySplit="5" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2803,13 +3368,13 @@
     <col min="63" max="276" width="8.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:276" s="1" customFormat="1" ht="14.25">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="3:3">
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="3:276" ht="13.5" customHeight="1">
+    <row r="2" customHeight="1" spans="4:4">
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="3:276" ht="20.100000000000001" customHeight="1">
+    <row r="3" ht="20.1" customHeight="1" spans="3:62">
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
@@ -2991,7 +3556,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="3:276" ht="20.100000000000001" customHeight="1">
+    <row r="4" ht="20.1" customHeight="1" spans="3:62">
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
@@ -3173,7 +3738,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="3:276" ht="20.100000000000001" customHeight="1">
+    <row r="5" ht="20.1" customHeight="1" spans="3:62">
       <c r="C5" s="5" t="s">
         <v>111</v>
       </c>
@@ -3355,7 +3920,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C6" s="8">
         <v>20001</v>
       </c>
@@ -3751,7 +4316,7 @@
       <c r="JO6" s="16"/>
       <c r="JP6" s="16"/>
     </row>
-    <row r="7" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C7" s="8">
         <v>20002</v>
       </c>
@@ -4147,7 +4712,7 @@
       <c r="JO7" s="16"/>
       <c r="JP7" s="16"/>
     </row>
-    <row r="8" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C8" s="8">
         <v>20003</v>
       </c>
@@ -4543,7 +5108,7 @@
       <c r="JO8" s="16"/>
       <c r="JP8" s="16"/>
     </row>
-    <row r="9" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C9" s="8">
         <v>310101</v>
       </c>
@@ -4560,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c r="I9" s="9">
         <v>0</v>
@@ -4713,7 +5278,7 @@
         <v>2301001</v>
       </c>
       <c r="BG9" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BH9" s="15">
         <v>310101</v>
@@ -4939,12 +5504,12 @@
       <c r="JO9" s="16"/>
       <c r="JP9" s="16"/>
     </row>
-    <row r="10" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C10" s="8">
         <v>310102</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E10" s="8">
         <v>310102</v>
@@ -4956,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c r="I10" s="9">
         <v>0</v>
@@ -5109,7 +5674,7 @@
         <v>2301004</v>
       </c>
       <c r="BG10" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BH10" s="15">
         <v>310102</v>
@@ -5335,12 +5900,12 @@
       <c r="JO10" s="16"/>
       <c r="JP10" s="16"/>
     </row>
-    <row r="11" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C11" s="8">
         <v>310103</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E11" s="8">
         <v>310103</v>
@@ -5352,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c r="I11" s="9">
         <v>0</v>
@@ -5505,7 +6070,7 @@
         <v>2301005</v>
       </c>
       <c r="BG11" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BH11" s="15">
         <v>310103</v>
@@ -5731,12 +6296,12 @@
       <c r="JO11" s="16"/>
       <c r="JP11" s="16"/>
     </row>
-    <row r="12" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C12" s="8">
         <v>310104</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E12" s="8">
         <v>310104</v>
@@ -5748,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c r="I12" s="9">
         <v>0</v>
@@ -5901,7 +6466,7 @@
         <v>2301006</v>
       </c>
       <c r="BG12" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BH12" s="15">
         <v>310104</v>
@@ -6127,12 +6692,12 @@
       <c r="JO12" s="16"/>
       <c r="JP12" s="16"/>
     </row>
-    <row r="13" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C13" s="8">
         <v>310105</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E13" s="8">
         <v>310105</v>
@@ -6144,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c r="I13" s="9">
         <v>0</v>
@@ -6297,7 +6862,7 @@
         <v>2301010</v>
       </c>
       <c r="BG13" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BH13" s="15">
         <v>310105</v>
@@ -6523,12 +7088,12 @@
       <c r="JO13" s="16"/>
       <c r="JP13" s="16"/>
     </row>
-    <row r="14" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C14" s="8">
         <v>310106</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E14" s="8">
         <v>310106</v>
@@ -6540,7 +7105,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="I14" s="9">
         <v>0</v>
@@ -6693,7 +7258,7 @@
         <v>2301001</v>
       </c>
       <c r="BG14" s="14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="BH14" s="15">
         <v>310106</v>
@@ -6919,12 +7484,12 @@
       <c r="JO14" s="16"/>
       <c r="JP14" s="16"/>
     </row>
-    <row r="15" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C15" s="8">
         <v>310107</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E15" s="8">
         <v>310107</v>
@@ -6936,7 +7501,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="I15" s="9">
         <v>0</v>
@@ -7089,7 +7654,7 @@
         <v>2301018</v>
       </c>
       <c r="BG15" s="14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BH15" s="15">
         <v>310107</v>
@@ -7315,12 +7880,12 @@
       <c r="JO15" s="16"/>
       <c r="JP15" s="16"/>
     </row>
-    <row r="16" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C16" s="8">
         <v>320101</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E16" s="8">
         <v>320101</v>
@@ -7332,7 +7897,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="I16" s="9">
         <v>0</v>
@@ -7485,7 +8050,7 @@
         <v>2301008</v>
       </c>
       <c r="BG16" s="14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="BH16" s="15">
         <v>320101</v>
@@ -7711,12 +8276,12 @@
       <c r="JO16" s="16"/>
       <c r="JP16" s="16"/>
     </row>
-    <row r="17" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C17" s="8">
         <v>320102</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E17" s="8">
         <v>320102</v>
@@ -7881,7 +8446,7 @@
         <v>2301002</v>
       </c>
       <c r="BG17" s="14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="BH17" s="15">
         <v>320102</v>
@@ -8107,12 +8672,12 @@
       <c r="JO17" s="16"/>
       <c r="JP17" s="16"/>
     </row>
-    <row r="18" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C18" s="8">
         <v>320103</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E18" s="8">
         <v>320103</v>
@@ -8124,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="I18" s="9">
         <v>0</v>
@@ -8277,7 +8842,7 @@
         <v>2301009</v>
       </c>
       <c r="BG18" s="14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BH18" s="15">
         <v>320103</v>
@@ -8503,12 +9068,12 @@
       <c r="JO18" s="16"/>
       <c r="JP18" s="16"/>
     </row>
-    <row r="19" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="19" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C19" s="8">
         <v>320104</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E19" s="8">
         <v>320104</v>
@@ -8520,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="I19" s="9">
         <v>0</v>
@@ -8673,7 +9238,7 @@
         <v>2301011</v>
       </c>
       <c r="BG19" s="14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="BH19" s="15">
         <v>320104</v>
@@ -8899,12 +9464,12 @@
       <c r="JO19" s="16"/>
       <c r="JP19" s="16"/>
     </row>
-    <row r="20" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C20" s="8">
         <v>320105</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E20" s="8">
         <v>320105</v>
@@ -9069,7 +9634,7 @@
         <v>2301020</v>
       </c>
       <c r="BG20" s="14" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="BH20" s="15">
         <v>320105</v>
@@ -9295,12 +9860,12 @@
       <c r="JO20" s="16"/>
       <c r="JP20" s="16"/>
     </row>
-    <row r="21" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C21" s="8">
         <v>320106</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E21" s="8">
         <v>320106</v>
@@ -9312,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c r="I21" s="9">
         <v>0</v>
@@ -9465,7 +10030,7 @@
         <v>2301005</v>
       </c>
       <c r="BG21" s="14" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="BH21" s="15">
         <v>320106</v>
@@ -9691,12 +10256,12 @@
       <c r="JO21" s="16"/>
       <c r="JP21" s="16"/>
     </row>
-    <row r="22" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C22" s="8">
         <v>320107</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E22" s="8">
         <v>320107</v>
@@ -9708,7 +10273,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c r="I22" s="9">
         <v>0</v>
@@ -9861,7 +10426,7 @@
         <v>2301015</v>
       </c>
       <c r="BG22" s="14" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="BH22" s="15">
         <v>320107</v>
@@ -10087,12 +10652,12 @@
       <c r="JO22" s="16"/>
       <c r="JP22" s="16"/>
     </row>
-    <row r="23" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="23" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C23" s="8">
         <v>330101</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E23" s="8">
         <v>330101</v>
@@ -10104,7 +10669,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>213</v>
+        <v>158</v>
       </c>
       <c r="I23" s="9">
         <v>0</v>
@@ -10257,7 +10822,7 @@
         <v>2301012</v>
       </c>
       <c r="BG23" s="14" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="BH23" s="15">
         <v>330101</v>
@@ -10483,12 +11048,12 @@
       <c r="JO23" s="16"/>
       <c r="JP23" s="16"/>
     </row>
-    <row r="24" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C24" s="8">
         <v>330102</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E24" s="8">
         <v>330102</v>
@@ -10500,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="I24" s="9">
         <v>0</v>
@@ -10653,7 +11218,7 @@
         <v>2301006</v>
       </c>
       <c r="BG24" s="14" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="BH24" s="15">
         <v>330102</v>
@@ -10879,12 +11444,12 @@
       <c r="JO24" s="16"/>
       <c r="JP24" s="16"/>
     </row>
-    <row r="25" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C25" s="8">
         <v>330103</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E25" s="8">
         <v>330103</v>
@@ -10896,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="I25" s="9">
         <v>0</v>
@@ -11049,7 +11614,7 @@
         <v>2301001</v>
       </c>
       <c r="BG25" s="14" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="BH25" s="15">
         <v>330103</v>
@@ -11275,12 +11840,12 @@
       <c r="JO25" s="16"/>
       <c r="JP25" s="16"/>
     </row>
-    <row r="26" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C26" s="8">
         <v>330104</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E26" s="8">
         <v>330104</v>
@@ -11292,7 +11857,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c r="I26" s="9">
         <v>0</v>
@@ -11445,7 +12010,7 @@
         <v>2301005</v>
       </c>
       <c r="BG26" s="14" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="BH26" s="15">
         <v>330104</v>
@@ -11671,12 +12236,12 @@
       <c r="JO26" s="16"/>
       <c r="JP26" s="16"/>
     </row>
-    <row r="27" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="27" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C27" s="8">
         <v>330105</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E27" s="8">
         <v>330105</v>
@@ -11688,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c r="I27" s="9">
         <v>0</v>
@@ -11841,7 +12406,7 @@
         <v>2301006</v>
       </c>
       <c r="BG27" s="14" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="BH27" s="15">
         <v>330105</v>
@@ -12067,12 +12632,12 @@
       <c r="JO27" s="16"/>
       <c r="JP27" s="16"/>
     </row>
-    <row r="28" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="28" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C28" s="8">
         <v>330106</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E28" s="8">
         <v>330106</v>
@@ -12084,7 +12649,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="I28" s="9">
         <v>0</v>
@@ -12237,7 +12802,7 @@
         <v>2301007</v>
       </c>
       <c r="BG28" s="14" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="BH28" s="15">
         <v>330106</v>
@@ -12463,12 +13028,12 @@
       <c r="JO28" s="16"/>
       <c r="JP28" s="16"/>
     </row>
-    <row r="29" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="29" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C29" s="8">
         <v>330107</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E29" s="8">
         <v>330107</v>
@@ -12480,7 +13045,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>213</v>
+        <v>158</v>
       </c>
       <c r="I29" s="9">
         <v>0</v>
@@ -12633,7 +13198,7 @@
         <v>2301008</v>
       </c>
       <c r="BG29" s="14" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="BH29" s="15">
         <v>330107</v>
@@ -12859,12 +13424,12 @@
       <c r="JO29" s="16"/>
       <c r="JP29" s="16"/>
     </row>
-    <row r="30" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C30" s="8">
         <v>340101</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E30" s="8">
         <v>340101</v>
@@ -12876,7 +13441,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="I30" s="9">
         <v>0</v>
@@ -13029,7 +13594,7 @@
         <v>2301009</v>
       </c>
       <c r="BG30" s="14" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="BH30" s="15">
         <v>340101</v>
@@ -13255,12 +13820,12 @@
       <c r="JO30" s="16"/>
       <c r="JP30" s="16"/>
     </row>
-    <row r="31" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C31" s="8">
         <v>340102</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E31" s="8">
         <v>340102</v>
@@ -13272,7 +13837,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="I31" s="9">
         <v>0</v>
@@ -13425,7 +13990,7 @@
         <v>2301010</v>
       </c>
       <c r="BG31" s="14" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="BH31" s="15">
         <v>340102</v>
@@ -13651,12 +14216,12 @@
       <c r="JO31" s="16"/>
       <c r="JP31" s="16"/>
     </row>
-    <row r="32" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C32" s="8">
         <v>340103</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E32" s="8">
         <v>340103</v>
@@ -13668,7 +14233,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="I32" s="9">
         <v>0</v>
@@ -13821,7 +14386,7 @@
         <v>2301001</v>
       </c>
       <c r="BG32" s="14" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="BH32" s="15">
         <v>340103</v>
@@ -14047,12 +14612,12 @@
       <c r="JO32" s="16"/>
       <c r="JP32" s="16"/>
     </row>
-    <row r="33" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="33" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C33" s="8">
         <v>340104</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E33" s="8">
         <v>340104</v>
@@ -14064,7 +14629,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c r="I33" s="9">
         <v>0</v>
@@ -14217,7 +14782,7 @@
         <v>2301004</v>
       </c>
       <c r="BG33" s="14" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="BH33" s="15">
         <v>340104</v>
@@ -14443,12 +15008,12 @@
       <c r="JO33" s="16"/>
       <c r="JP33" s="16"/>
     </row>
-    <row r="34" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="34" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C34" s="8">
         <v>340105</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E34" s="8">
         <v>340105</v>
@@ -14460,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="I34" s="9">
         <v>0</v>
@@ -14613,7 +15178,7 @@
         <v>2301011</v>
       </c>
       <c r="BG34" s="14" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="BH34" s="15">
         <v>340105</v>
@@ -14839,12 +15404,12 @@
       <c r="JO34" s="16"/>
       <c r="JP34" s="16"/>
     </row>
-    <row r="35" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="35" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C35" s="8">
         <v>340106</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E35" s="8">
         <v>340106</v>
@@ -14856,7 +15421,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="I35" s="9">
         <v>0</v>
@@ -15009,7 +15574,7 @@
         <v>2301003</v>
       </c>
       <c r="BG35" s="14" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="BH35" s="15">
         <v>340106</v>
@@ -15235,12 +15800,12 @@
       <c r="JO35" s="16"/>
       <c r="JP35" s="16"/>
     </row>
-    <row r="36" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="36" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C36" s="8">
         <v>340107</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E36" s="8">
         <v>340107</v>
@@ -15252,7 +15817,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="I36" s="9">
         <v>0</v>
@@ -15405,7 +15970,7 @@
         <v>2301010</v>
       </c>
       <c r="BG36" s="14" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="BH36" s="15">
         <v>340107</v>
@@ -15631,12 +16196,12 @@
       <c r="JO36" s="16"/>
       <c r="JP36" s="16"/>
     </row>
-    <row r="37" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="37" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C37" s="8">
         <v>350101</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E37" s="8">
         <v>350101</v>
@@ -15648,7 +16213,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="I37" s="9">
         <v>0</v>
@@ -15801,7 +16366,7 @@
         <v>2301013</v>
       </c>
       <c r="BG37" s="14" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="BH37" s="15">
         <v>350101</v>
@@ -16027,12 +16592,12 @@
       <c r="JO37" s="16"/>
       <c r="JP37" s="16"/>
     </row>
-    <row r="38" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="38" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C38" s="8">
         <v>350102</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E38" s="8">
         <v>350102</v>
@@ -16044,7 +16609,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c r="I38" s="9">
         <v>0</v>
@@ -16197,7 +16762,7 @@
         <v>2301014</v>
       </c>
       <c r="BG38" s="14" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="BH38" s="15">
         <v>350102</v>
@@ -16423,12 +16988,12 @@
       <c r="JO38" s="16"/>
       <c r="JP38" s="16"/>
     </row>
-    <row r="39" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="39" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C39" s="8">
         <v>350103</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="E39" s="8">
         <v>350103</v>
@@ -16440,7 +17005,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c r="I39" s="9">
         <v>0</v>
@@ -16593,7 +17158,7 @@
         <v>2301013</v>
       </c>
       <c r="BG39" s="14" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="BH39" s="15">
         <v>350103</v>
@@ -16819,12 +17384,12 @@
       <c r="JO39" s="16"/>
       <c r="JP39" s="16"/>
     </row>
-    <row r="40" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="40" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C40" s="8">
         <v>350104</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="E40" s="8">
         <v>350104</v>
@@ -16836,7 +17401,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="I40" s="9">
         <v>0</v>
@@ -16989,7 +17554,7 @@
         <v>2301008</v>
       </c>
       <c r="BG40" s="14" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="BH40" s="15">
         <v>350104</v>
@@ -17215,12 +17780,12 @@
       <c r="JO40" s="16"/>
       <c r="JP40" s="16"/>
     </row>
-    <row r="41" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="41" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C41" s="8">
         <v>350105</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="E41" s="8">
         <v>350105</v>
@@ -17232,7 +17797,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="I41" s="9">
         <v>0</v>
@@ -17385,7 +17950,7 @@
         <v>2301010</v>
       </c>
       <c r="BG41" s="14" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="BH41" s="15">
         <v>350105</v>
@@ -17611,12 +18176,12 @@
       <c r="JO41" s="16"/>
       <c r="JP41" s="16"/>
     </row>
-    <row r="42" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="42" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C42" s="8">
         <v>350106</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="E42" s="8">
         <v>350106</v>
@@ -17628,7 +18193,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="I42" s="9">
         <v>0</v>
@@ -17781,7 +18346,7 @@
         <v>2301011</v>
       </c>
       <c r="BG42" s="14" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="BH42" s="15">
         <v>350106</v>
@@ -18007,12 +18572,12 @@
       <c r="JO42" s="16"/>
       <c r="JP42" s="16"/>
     </row>
-    <row r="43" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="43" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C43" s="8">
         <v>400001</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="E43" s="8">
         <v>400001</v>
@@ -18024,7 +18589,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="I43" s="9">
         <v>0</v>
@@ -18177,7 +18742,7 @@
         <v>2301002</v>
       </c>
       <c r="BG43" s="14" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="BH43" s="15">
         <v>400001</v>
@@ -18403,12 +18968,12 @@
       <c r="JO43" s="16"/>
       <c r="JP43" s="16"/>
     </row>
-    <row r="44" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="44" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C44" s="8">
         <v>400002</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E44" s="8">
         <v>400002</v>
@@ -18420,7 +18985,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c r="I44" s="9">
         <v>0</v>
@@ -18573,7 +19138,7 @@
         <v>2301008</v>
       </c>
       <c r="BG44" s="14" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="BH44" s="15">
         <v>400002</v>
@@ -18799,12 +19364,12 @@
       <c r="JO44" s="16"/>
       <c r="JP44" s="16"/>
     </row>
-    <row r="45" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="45" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C45" s="8">
         <v>400003</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E45" s="8">
         <v>400003</v>
@@ -18816,7 +19381,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="I45" s="9">
         <v>0</v>
@@ -18969,7 +19534,7 @@
         <v>2301006</v>
       </c>
       <c r="BG45" s="14" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="BH45" s="15">
         <v>400003</v>
@@ -19195,12 +19760,12 @@
       <c r="JO45" s="16"/>
       <c r="JP45" s="16"/>
     </row>
-    <row r="46" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="46" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C46" s="8">
         <v>400004</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E46" s="8">
         <v>400004</v>
@@ -19212,7 +19777,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="I46" s="9">
         <v>0</v>
@@ -19365,7 +19930,7 @@
         <v>2301006</v>
       </c>
       <c r="BG46" s="14" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="BH46" s="15">
         <v>400004</v>
@@ -19591,12 +20156,12 @@
       <c r="JO46" s="16"/>
       <c r="JP46" s="16"/>
     </row>
-    <row r="47" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="47" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C47" s="8">
         <v>400005</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="E47" s="8">
         <v>400005</v>
@@ -19608,7 +20173,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="I47" s="9">
         <v>0</v>
@@ -19761,7 +20326,7 @@
         <v>2301010</v>
       </c>
       <c r="BG47" s="14" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="BH47" s="15">
         <v>400005</v>
@@ -19987,12 +20552,12 @@
       <c r="JO47" s="16"/>
       <c r="JP47" s="16"/>
     </row>
-    <row r="48" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="48" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C48" s="8">
         <v>400006</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E48" s="8">
         <v>400006</v>
@@ -20004,7 +20569,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I48" s="9">
         <v>0</v>
@@ -20157,7 +20722,7 @@
         <v>2301011</v>
       </c>
       <c r="BG48" s="14" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="BH48" s="15">
         <v>400006</v>
@@ -20383,12 +20948,12 @@
       <c r="JO48" s="16"/>
       <c r="JP48" s="16"/>
     </row>
-    <row r="49" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="49" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C49" s="8">
         <v>400007</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E49" s="8">
         <v>400007</v>
@@ -20400,7 +20965,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I49" s="9">
         <v>0</v>
@@ -20553,7 +21118,7 @@
         <v>2301002</v>
       </c>
       <c r="BG49" s="14" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="BH49" s="15">
         <v>400007</v>
@@ -20779,12 +21344,12 @@
       <c r="JO49" s="16"/>
       <c r="JP49" s="16"/>
     </row>
-    <row r="50" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="50" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
       <c r="C50" s="8">
         <v>400008</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="E50" s="8">
         <v>400008</v>
@@ -20796,7 +21361,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c r="I50" s="9">
         <v>0</v>
@@ -20949,7 +21514,7 @@
         <v>2301012</v>
       </c>
       <c r="BG50" s="14" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="BH50" s="15">
         <v>400008</v>
@@ -21176,12 +21741,11 @@
       <c r="JP50" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/PetConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PetConfig.xlsx
@@ -1,47 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B30807-B800-4AB8-AA34-BD3A20281E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
     <author>51Gamer_D01</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -49,7 +42,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -58,6 +51,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>用于宠物界面展示的位置</t>
@@ -66,7 +60,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>,</t>
         </r>
@@ -74,6 +68,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">在摄像机前修正位置
@@ -81,14 +76,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -96,7 +91,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0</t>
@@ -105,6 +100,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：普通 （野外 变异 宝宝）  
@@ -114,7 +110,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>1</t>
         </r>
@@ -122,19 +118,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：神兽</t>
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1">
+    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -143,6 +141,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -150,13 +149,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者</t>
@@ -166,7 +166,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">:
 </t>
@@ -176,6 +176,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">怪物类型
@@ -186,7 +187,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>0</t>
         </r>
@@ -195,6 +196,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：通用
@@ -205,7 +207,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>1</t>
         </r>
@@ -214,6 +216,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：野兽
@@ -224,7 +227,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>2</t>
         </r>
@@ -233,6 +236,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：人物
@@ -243,7 +247,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>3</t>
         </r>
@@ -252,19 +256,21 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：恶魔</t>
         </r>
       </text>
     </comment>
-    <comment ref="AY3" authorId="0">
+    <comment ref="AY3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:
@@ -274,6 +280,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -281,13 +288,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ3" authorId="0">
+    <comment ref="AZ3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -296,6 +304,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -303,13 +312,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF3" authorId="1">
+    <comment ref="BF3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -318,6 +328,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -707,9 +718,6 @@
     <t>2103010;2103020;2103030</t>
   </si>
   <si>
-    <t>史莱姆</t>
-  </si>
-  <si>
     <t>0,60,250,35,0</t>
   </si>
   <si>
@@ -993,19 +1001,17 @@
   </si>
   <si>
     <t>2301005,0.5;2302018,0.3;2302006,0.32304050,0.3</t>
+  </si>
+  <si>
+    <t>软泥怪</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="35">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1016,11 +1022,13 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1028,225 +1036,81 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1273,259 +1137,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.79964598529007846"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.79964598529007846"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.79964598529007846"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.79964598529007846"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.79964598529007846"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.79964598529007846"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799676503799554"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799676503799554"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799676503799554"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799676503799554"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799676503799554"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799676503799554"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1536,7 +1214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1641,399 +1319,172 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="106">
+  <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="48" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="48" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="48" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="48" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2073,118 +1524,71 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="106">
+  <cellStyles count="58">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="49"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="50"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="51"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="52"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="54"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="55"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="56"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="57"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="58"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="59"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="60"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="61"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="62"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="63"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="64"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="65"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="66"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="67"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="68"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="69"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="70"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="71"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="72"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="73"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="74"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="75"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="76"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="77"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="78"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="79"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="80"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="81"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="82"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="83"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="84"/>
-    <cellStyle name="常规 2" xfId="85"/>
-    <cellStyle name="常规 2 2" xfId="86"/>
-    <cellStyle name="常规 2 3" xfId="87"/>
-    <cellStyle name="常规 2 3 2" xfId="88"/>
-    <cellStyle name="常规 2 3 2 2" xfId="89"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="90"/>
-    <cellStyle name="常规 2 3 2 3" xfId="91"/>
-    <cellStyle name="常规 2 3 3" xfId="92"/>
-    <cellStyle name="常规 2 3 3 2" xfId="93"/>
-    <cellStyle name="常规 2 3 4" xfId="94"/>
-    <cellStyle name="常规 3" xfId="95"/>
-    <cellStyle name="常规 4" xfId="96"/>
-    <cellStyle name="常规 5" xfId="97"/>
-    <cellStyle name="常规 5 2" xfId="98"/>
-    <cellStyle name="常规 5 2 2" xfId="99"/>
-    <cellStyle name="常规 5 3" xfId="100"/>
-    <cellStyle name="常规 6" xfId="101"/>
-    <cellStyle name="注释 2" xfId="102"/>
-    <cellStyle name="注释 2 2" xfId="103"/>
-    <cellStyle name="注释 2 2 2" xfId="104"/>
-    <cellStyle name="注释 2 3" xfId="105"/>
+    <cellStyle name="常规 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="常规 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="常规 2 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="常规 2 3 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="常规 2 3 4" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="常规 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="常规 4" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="常规 5" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="常规 5 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="常规 5 2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="常规 5 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="常规 6" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="注释 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="注释 2 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="注释 2 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="注释 2 3" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
@@ -2257,6 +1661,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3327,18 +2734,17 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3368,13 +2774,13 @@
     <col min="63" max="276" width="8.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="3:3">
+    <row r="1" spans="3:276" s="1" customFormat="1" ht="14.25">
       <c r="C1" s="4"/>
     </row>
-    <row r="2" customHeight="1" spans="4:4">
+    <row r="2" spans="3:276" ht="13.5" customHeight="1">
       <c r="D2" s="1"/>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="3:62">
+    <row r="3" spans="3:276" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
@@ -3556,7 +2962,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:62">
+    <row r="4" spans="3:276" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
@@ -3738,7 +3144,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:62">
+    <row r="5" spans="3:276" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="5" t="s">
         <v>111</v>
       </c>
@@ -3920,7 +3326,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="6" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="8">
         <v>20001</v>
       </c>
@@ -4316,7 +3722,7 @@
       <c r="JO6" s="16"/>
       <c r="JP6" s="16"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="7" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="8">
         <v>20002</v>
       </c>
@@ -4712,7 +4118,7 @@
       <c r="JO7" s="16"/>
       <c r="JP7" s="16"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="8" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="8">
         <v>20003</v>
       </c>
@@ -5108,12 +4514,12 @@
       <c r="JO8" s="16"/>
       <c r="JP8" s="16"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="9" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C9" s="8">
         <v>310101</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>125</v>
+        <v>220</v>
       </c>
       <c r="E9" s="8">
         <v>310101</v>
@@ -5125,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I9" s="9">
         <v>0</v>
@@ -5278,7 +4684,7 @@
         <v>2301001</v>
       </c>
       <c r="BG9" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BH9" s="15">
         <v>310101</v>
@@ -5504,12 +4910,12 @@
       <c r="JO9" s="16"/>
       <c r="JP9" s="16"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="10" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C10" s="8">
         <v>310102</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10" s="8">
         <v>310102</v>
@@ -5521,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I10" s="9">
         <v>0</v>
@@ -5674,7 +5080,7 @@
         <v>2301004</v>
       </c>
       <c r="BG10" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BH10" s="15">
         <v>310102</v>
@@ -5900,12 +5306,12 @@
       <c r="JO10" s="16"/>
       <c r="JP10" s="16"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="11" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="8">
         <v>310103</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11" s="8">
         <v>310103</v>
@@ -5917,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I11" s="9">
         <v>0</v>
@@ -6070,7 +5476,7 @@
         <v>2301005</v>
       </c>
       <c r="BG11" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BH11" s="15">
         <v>310103</v>
@@ -6296,12 +5702,12 @@
       <c r="JO11" s="16"/>
       <c r="JP11" s="16"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="12" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C12" s="8">
         <v>310104</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E12" s="8">
         <v>310104</v>
@@ -6313,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I12" s="9">
         <v>0</v>
@@ -6466,7 +5872,7 @@
         <v>2301006</v>
       </c>
       <c r="BG12" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BH12" s="15">
         <v>310104</v>
@@ -6692,12 +6098,12 @@
       <c r="JO12" s="16"/>
       <c r="JP12" s="16"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="13" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C13" s="8">
         <v>310105</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E13" s="8">
         <v>310105</v>
@@ -6709,7 +6115,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I13" s="9">
         <v>0</v>
@@ -6862,7 +6268,7 @@
         <v>2301010</v>
       </c>
       <c r="BG13" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BH13" s="15">
         <v>310105</v>
@@ -7088,12 +6494,12 @@
       <c r="JO13" s="16"/>
       <c r="JP13" s="16"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="14" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C14" s="8">
         <v>310106</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E14" s="8">
         <v>310106</v>
@@ -7105,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I14" s="9">
         <v>0</v>
@@ -7258,7 +6664,7 @@
         <v>2301001</v>
       </c>
       <c r="BG14" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BH14" s="15">
         <v>310106</v>
@@ -7484,12 +6890,12 @@
       <c r="JO14" s="16"/>
       <c r="JP14" s="16"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="15" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C15" s="8">
         <v>310107</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E15" s="8">
         <v>310107</v>
@@ -7501,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I15" s="9">
         <v>0</v>
@@ -7654,7 +7060,7 @@
         <v>2301018</v>
       </c>
       <c r="BG15" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BH15" s="15">
         <v>310107</v>
@@ -7880,12 +7286,12 @@
       <c r="JO15" s="16"/>
       <c r="JP15" s="16"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="16" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C16" s="8">
         <v>320101</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E16" s="8">
         <v>320101</v>
@@ -7897,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I16" s="9">
         <v>0</v>
@@ -8050,7 +7456,7 @@
         <v>2301008</v>
       </c>
       <c r="BG16" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="BH16" s="15">
         <v>320101</v>
@@ -8276,12 +7682,12 @@
       <c r="JO16" s="16"/>
       <c r="JP16" s="16"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="17" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C17" s="8">
         <v>320102</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E17" s="8">
         <v>320102</v>
@@ -8446,7 +7852,7 @@
         <v>2301002</v>
       </c>
       <c r="BG17" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BH17" s="15">
         <v>320102</v>
@@ -8672,12 +8078,12 @@
       <c r="JO17" s="16"/>
       <c r="JP17" s="16"/>
     </row>
-    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="18" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C18" s="8">
         <v>320103</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E18" s="8">
         <v>320103</v>
@@ -8689,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I18" s="9">
         <v>0</v>
@@ -8842,7 +8248,7 @@
         <v>2301009</v>
       </c>
       <c r="BG18" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BH18" s="15">
         <v>320103</v>
@@ -9068,12 +8474,12 @@
       <c r="JO18" s="16"/>
       <c r="JP18" s="16"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="19" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C19" s="8">
         <v>320104</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E19" s="8">
         <v>320104</v>
@@ -9085,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I19" s="9">
         <v>0</v>
@@ -9238,7 +8644,7 @@
         <v>2301011</v>
       </c>
       <c r="BG19" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BH19" s="15">
         <v>320104</v>
@@ -9464,12 +8870,12 @@
       <c r="JO19" s="16"/>
       <c r="JP19" s="16"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="20" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="8">
         <v>320105</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E20" s="8">
         <v>320105</v>
@@ -9634,7 +9040,7 @@
         <v>2301020</v>
       </c>
       <c r="BG20" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BH20" s="15">
         <v>320105</v>
@@ -9860,12 +9266,12 @@
       <c r="JO20" s="16"/>
       <c r="JP20" s="16"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="21" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C21" s="8">
         <v>320106</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E21" s="8">
         <v>320106</v>
@@ -9877,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I21" s="9">
         <v>0</v>
@@ -10030,7 +9436,7 @@
         <v>2301005</v>
       </c>
       <c r="BG21" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BH21" s="15">
         <v>320106</v>
@@ -10256,12 +9662,12 @@
       <c r="JO21" s="16"/>
       <c r="JP21" s="16"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="22" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C22" s="8">
         <v>320107</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E22" s="8">
         <v>320107</v>
@@ -10273,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I22" s="9">
         <v>0</v>
@@ -10426,7 +9832,7 @@
         <v>2301015</v>
       </c>
       <c r="BG22" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BH22" s="15">
         <v>320107</v>
@@ -10652,12 +10058,12 @@
       <c r="JO22" s="16"/>
       <c r="JP22" s="16"/>
     </row>
-    <row r="23" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="23" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C23" s="8">
         <v>330101</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E23" s="8">
         <v>330101</v>
@@ -10669,7 +10075,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I23" s="9">
         <v>0</v>
@@ -10822,7 +10228,7 @@
         <v>2301012</v>
       </c>
       <c r="BG23" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="BH23" s="15">
         <v>330101</v>
@@ -11048,12 +10454,12 @@
       <c r="JO23" s="16"/>
       <c r="JP23" s="16"/>
     </row>
-    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="24" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C24" s="8">
         <v>330102</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E24" s="8">
         <v>330102</v>
@@ -11065,7 +10471,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I24" s="9">
         <v>0</v>
@@ -11218,7 +10624,7 @@
         <v>2301006</v>
       </c>
       <c r="BG24" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BH24" s="15">
         <v>330102</v>
@@ -11444,12 +10850,12 @@
       <c r="JO24" s="16"/>
       <c r="JP24" s="16"/>
     </row>
-    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="25" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C25" s="8">
         <v>330103</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E25" s="8">
         <v>330103</v>
@@ -11461,7 +10867,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I25" s="9">
         <v>0</v>
@@ -11614,7 +11020,7 @@
         <v>2301001</v>
       </c>
       <c r="BG25" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BH25" s="15">
         <v>330103</v>
@@ -11840,12 +11246,12 @@
       <c r="JO25" s="16"/>
       <c r="JP25" s="16"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="26" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C26" s="8">
         <v>330104</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E26" s="8">
         <v>330104</v>
@@ -11857,7 +11263,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I26" s="9">
         <v>0</v>
@@ -12010,7 +11416,7 @@
         <v>2301005</v>
       </c>
       <c r="BG26" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BH26" s="15">
         <v>330104</v>
@@ -12236,12 +11642,12 @@
       <c r="JO26" s="16"/>
       <c r="JP26" s="16"/>
     </row>
-    <row r="27" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="27" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C27" s="8">
         <v>330105</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E27" s="8">
         <v>330105</v>
@@ -12253,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I27" s="9">
         <v>0</v>
@@ -12406,7 +11812,7 @@
         <v>2301006</v>
       </c>
       <c r="BG27" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BH27" s="15">
         <v>330105</v>
@@ -12632,12 +12038,12 @@
       <c r="JO27" s="16"/>
       <c r="JP27" s="16"/>
     </row>
-    <row r="28" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="28" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C28" s="8">
         <v>330106</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E28" s="8">
         <v>330106</v>
@@ -12649,7 +12055,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I28" s="9">
         <v>0</v>
@@ -12802,7 +12208,7 @@
         <v>2301007</v>
       </c>
       <c r="BG28" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BH28" s="15">
         <v>330106</v>
@@ -13028,12 +12434,12 @@
       <c r="JO28" s="16"/>
       <c r="JP28" s="16"/>
     </row>
-    <row r="29" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="29" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C29" s="8">
         <v>330107</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E29" s="8">
         <v>330107</v>
@@ -13045,7 +12451,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I29" s="9">
         <v>0</v>
@@ -13198,7 +12604,7 @@
         <v>2301008</v>
       </c>
       <c r="BG29" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BH29" s="15">
         <v>330107</v>
@@ -13424,12 +12830,12 @@
       <c r="JO29" s="16"/>
       <c r="JP29" s="16"/>
     </row>
-    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="30" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C30" s="8">
         <v>340101</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E30" s="8">
         <v>340101</v>
@@ -13441,7 +12847,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I30" s="9">
         <v>0</v>
@@ -13594,7 +13000,7 @@
         <v>2301009</v>
       </c>
       <c r="BG30" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BH30" s="15">
         <v>340101</v>
@@ -13820,12 +13226,12 @@
       <c r="JO30" s="16"/>
       <c r="JP30" s="16"/>
     </row>
-    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="31" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C31" s="8">
         <v>340102</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E31" s="8">
         <v>340102</v>
@@ -13837,7 +13243,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I31" s="9">
         <v>0</v>
@@ -13990,7 +13396,7 @@
         <v>2301010</v>
       </c>
       <c r="BG31" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BH31" s="15">
         <v>340102</v>
@@ -14216,12 +13622,12 @@
       <c r="JO31" s="16"/>
       <c r="JP31" s="16"/>
     </row>
-    <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="32" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C32" s="8">
         <v>340103</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E32" s="8">
         <v>340103</v>
@@ -14233,7 +13639,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I32" s="9">
         <v>0</v>
@@ -14386,7 +13792,7 @@
         <v>2301001</v>
       </c>
       <c r="BG32" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BH32" s="15">
         <v>340103</v>
@@ -14612,12 +14018,12 @@
       <c r="JO32" s="16"/>
       <c r="JP32" s="16"/>
     </row>
-    <row r="33" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="33" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C33" s="8">
         <v>340104</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E33" s="8">
         <v>340104</v>
@@ -14629,7 +14035,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I33" s="9">
         <v>0</v>
@@ -14782,7 +14188,7 @@
         <v>2301004</v>
       </c>
       <c r="BG33" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BH33" s="15">
         <v>340104</v>
@@ -15008,12 +14414,12 @@
       <c r="JO33" s="16"/>
       <c r="JP33" s="16"/>
     </row>
-    <row r="34" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="34" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C34" s="8">
         <v>340105</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E34" s="8">
         <v>340105</v>
@@ -15025,7 +14431,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I34" s="9">
         <v>0</v>
@@ -15178,7 +14584,7 @@
         <v>2301011</v>
       </c>
       <c r="BG34" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BH34" s="15">
         <v>340105</v>
@@ -15404,12 +14810,12 @@
       <c r="JO34" s="16"/>
       <c r="JP34" s="16"/>
     </row>
-    <row r="35" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="35" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C35" s="8">
         <v>340106</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E35" s="8">
         <v>340106</v>
@@ -15421,7 +14827,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I35" s="9">
         <v>0</v>
@@ -15574,7 +14980,7 @@
         <v>2301003</v>
       </c>
       <c r="BG35" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BH35" s="15">
         <v>340106</v>
@@ -15800,12 +15206,12 @@
       <c r="JO35" s="16"/>
       <c r="JP35" s="16"/>
     </row>
-    <row r="36" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="36" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C36" s="8">
         <v>340107</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E36" s="8">
         <v>340107</v>
@@ -15817,7 +15223,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I36" s="9">
         <v>0</v>
@@ -15970,7 +15376,7 @@
         <v>2301010</v>
       </c>
       <c r="BG36" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BH36" s="15">
         <v>340107</v>
@@ -16196,12 +15602,12 @@
       <c r="JO36" s="16"/>
       <c r="JP36" s="16"/>
     </row>
-    <row r="37" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="37" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C37" s="8">
         <v>350101</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E37" s="8">
         <v>350101</v>
@@ -16213,7 +15619,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I37" s="9">
         <v>0</v>
@@ -16366,7 +15772,7 @@
         <v>2301013</v>
       </c>
       <c r="BG37" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BH37" s="15">
         <v>350101</v>
@@ -16592,12 +15998,12 @@
       <c r="JO37" s="16"/>
       <c r="JP37" s="16"/>
     </row>
-    <row r="38" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="38" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C38" s="8">
         <v>350102</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E38" s="8">
         <v>350102</v>
@@ -16609,7 +16015,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I38" s="9">
         <v>0</v>
@@ -16762,7 +16168,7 @@
         <v>2301014</v>
       </c>
       <c r="BG38" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="BH38" s="15">
         <v>350102</v>
@@ -16988,12 +16394,12 @@
       <c r="JO38" s="16"/>
       <c r="JP38" s="16"/>
     </row>
-    <row r="39" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="39" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C39" s="8">
         <v>350103</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E39" s="8">
         <v>350103</v>
@@ -17005,7 +16411,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9">
         <v>0</v>
@@ -17158,7 +16564,7 @@
         <v>2301013</v>
       </c>
       <c r="BG39" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BH39" s="15">
         <v>350103</v>
@@ -17384,12 +16790,12 @@
       <c r="JO39" s="16"/>
       <c r="JP39" s="16"/>
     </row>
-    <row r="40" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="40" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C40" s="8">
         <v>350104</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E40" s="8">
         <v>350104</v>
@@ -17401,7 +16807,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I40" s="9">
         <v>0</v>
@@ -17554,7 +16960,7 @@
         <v>2301008</v>
       </c>
       <c r="BG40" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BH40" s="15">
         <v>350104</v>
@@ -17780,12 +17186,12 @@
       <c r="JO40" s="16"/>
       <c r="JP40" s="16"/>
     </row>
-    <row r="41" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="41" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C41" s="8">
         <v>350105</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E41" s="8">
         <v>350105</v>
@@ -17797,7 +17203,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I41" s="9">
         <v>0</v>
@@ -17950,7 +17356,7 @@
         <v>2301010</v>
       </c>
       <c r="BG41" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BH41" s="15">
         <v>350105</v>
@@ -18176,12 +17582,12 @@
       <c r="JO41" s="16"/>
       <c r="JP41" s="16"/>
     </row>
-    <row r="42" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="42" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C42" s="8">
         <v>350106</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E42" s="8">
         <v>350106</v>
@@ -18193,7 +17599,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I42" s="9">
         <v>0</v>
@@ -18346,7 +17752,7 @@
         <v>2301011</v>
       </c>
       <c r="BG42" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BH42" s="15">
         <v>350106</v>
@@ -18572,12 +17978,12 @@
       <c r="JO42" s="16"/>
       <c r="JP42" s="16"/>
     </row>
-    <row r="43" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="43" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C43" s="8">
         <v>400001</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E43" s="8">
         <v>400001</v>
@@ -18589,7 +17995,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I43" s="9">
         <v>0</v>
@@ -18742,7 +18148,7 @@
         <v>2301002</v>
       </c>
       <c r="BG43" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BH43" s="15">
         <v>400001</v>
@@ -18968,12 +18374,12 @@
       <c r="JO43" s="16"/>
       <c r="JP43" s="16"/>
     </row>
-    <row r="44" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="44" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C44" s="8">
         <v>400002</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E44" s="8">
         <v>400002</v>
@@ -18985,7 +18391,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I44" s="9">
         <v>0</v>
@@ -19138,7 +18544,7 @@
         <v>2301008</v>
       </c>
       <c r="BG44" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BH44" s="15">
         <v>400002</v>
@@ -19364,12 +18770,12 @@
       <c r="JO44" s="16"/>
       <c r="JP44" s="16"/>
     </row>
-    <row r="45" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="45" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C45" s="8">
         <v>400003</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E45" s="8">
         <v>400003</v>
@@ -19381,7 +18787,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I45" s="9">
         <v>0</v>
@@ -19534,7 +18940,7 @@
         <v>2301006</v>
       </c>
       <c r="BG45" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BH45" s="15">
         <v>400003</v>
@@ -19760,12 +19166,12 @@
       <c r="JO45" s="16"/>
       <c r="JP45" s="16"/>
     </row>
-    <row r="46" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="46" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C46" s="8">
         <v>400004</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E46" s="8">
         <v>400004</v>
@@ -19777,7 +19183,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I46" s="9">
         <v>0</v>
@@ -19930,7 +19336,7 @@
         <v>2301006</v>
       </c>
       <c r="BG46" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BH46" s="15">
         <v>400004</v>
@@ -20156,12 +19562,12 @@
       <c r="JO46" s="16"/>
       <c r="JP46" s="16"/>
     </row>
-    <row r="47" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="47" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C47" s="8">
         <v>400005</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E47" s="8">
         <v>400005</v>
@@ -20173,7 +19579,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I47" s="9">
         <v>0</v>
@@ -20326,7 +19732,7 @@
         <v>2301010</v>
       </c>
       <c r="BG47" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BH47" s="15">
         <v>400005</v>
@@ -20552,12 +19958,12 @@
       <c r="JO47" s="16"/>
       <c r="JP47" s="16"/>
     </row>
-    <row r="48" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="48" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C48" s="8">
         <v>400006</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E48" s="8">
         <v>400006</v>
@@ -20569,7 +19975,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I48" s="9">
         <v>0</v>
@@ -20722,7 +20128,7 @@
         <v>2301011</v>
       </c>
       <c r="BG48" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BH48" s="15">
         <v>400006</v>
@@ -20948,12 +20354,12 @@
       <c r="JO48" s="16"/>
       <c r="JP48" s="16"/>
     </row>
-    <row r="49" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="49" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C49" s="8">
         <v>400007</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E49" s="8">
         <v>400007</v>
@@ -20965,7 +20371,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I49" s="9">
         <v>0</v>
@@ -21118,7 +20524,7 @@
         <v>2301002</v>
       </c>
       <c r="BG49" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BH49" s="15">
         <v>400007</v>
@@ -21344,12 +20750,12 @@
       <c r="JO49" s="16"/>
       <c r="JP49" s="16"/>
     </row>
-    <row r="50" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:276">
+    <row r="50" spans="3:276" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C50" s="8">
         <v>400008</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E50" s="8">
         <v>400008</v>
@@ -21361,7 +20767,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I50" s="9">
         <v>0</v>
@@ -21514,7 +20920,7 @@
         <v>2301012</v>
       </c>
       <c r="BG50" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BH50" s="15">
         <v>400008</v>
@@ -21741,11 +21147,12 @@
       <c r="JP50" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/PetConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PetConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B30807-B800-4AB8-AA34-BD3A20281E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52266755-A7E1-474C-AE21-6CB30AE99CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2744,29 +2744,30 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="11" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.125" style="3" customWidth="1"/>
-    <col min="5" max="7" width="11.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20" style="3" customWidth="1"/>
-    <col min="9" max="13" width="11.875" style="3" customWidth="1"/>
-    <col min="14" max="15" width="15.625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="16.125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="12.375" style="3" customWidth="1"/>
-    <col min="18" max="25" width="13.125" style="3" customWidth="1"/>
-    <col min="26" max="27" width="18" style="3" customWidth="1"/>
-    <col min="28" max="29" width="20" style="3" customWidth="1"/>
-    <col min="30" max="49" width="15.625" style="3" customWidth="1"/>
-    <col min="50" max="50" width="13.375" style="3" customWidth="1"/>
-    <col min="51" max="51" width="10.375" style="3" customWidth="1"/>
-    <col min="52" max="53" width="11.375" style="3" customWidth="1"/>
-    <col min="54" max="54" width="10.375" style="3" customWidth="1"/>
-    <col min="55" max="55" width="13.125" style="3" customWidth="1"/>
-    <col min="56" max="57" width="15.125" style="3" customWidth="1"/>
+    <col min="5" max="7" width="11.875" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="13" width="11.875" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="15.625" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="16.125" style="3" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="12.375" style="3" hidden="1" customWidth="1"/>
+    <col min="18" max="25" width="13.125" style="3" hidden="1" customWidth="1"/>
+    <col min="26" max="27" width="18" style="3" hidden="1" customWidth="1"/>
+    <col min="28" max="29" width="20" style="3" hidden="1" customWidth="1"/>
+    <col min="30" max="49" width="15.625" style="3" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="13.375" style="3" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="10.375" style="3" hidden="1" customWidth="1"/>
+    <col min="52" max="53" width="11.375" style="3" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="10.375" style="3" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="13.125" style="3" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="15.125" style="3" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="15.125" style="3" customWidth="1"/>
     <col min="58" max="58" width="25.75" style="3" customWidth="1"/>
     <col min="59" max="59" width="35.375" style="3" customWidth="1"/>
     <col min="60" max="61" width="25.5" style="3" customWidth="1"/>
@@ -4678,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="BE9" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF9" s="9">
         <v>2301001</v>
@@ -5074,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="BE10" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF10" s="9">
         <v>2301004</v>
@@ -5470,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="BE11" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF11" s="9">
         <v>2301005</v>
@@ -6262,7 +6263,7 @@
         <v>0</v>
       </c>
       <c r="BE13" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF13" s="9">
         <v>2301010</v>
@@ -6658,7 +6659,7 @@
         <v>0</v>
       </c>
       <c r="BE14" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF14" s="9">
         <v>2301001</v>
@@ -7054,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="BE15" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF15" s="9">
         <v>2301018</v>
@@ -7450,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="BE16" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF16" s="9">
         <v>2301008</v>
@@ -7846,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="BE17" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF17" s="9">
         <v>2301002</v>
@@ -8242,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="BE18" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF18" s="9">
         <v>2301009</v>
@@ -8638,7 +8639,7 @@
         <v>0</v>
       </c>
       <c r="BE19" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF19" s="9">
         <v>2301011</v>
@@ -9034,7 +9035,7 @@
         <v>0</v>
       </c>
       <c r="BE20" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF20" s="9">
         <v>2301020</v>
@@ -10618,7 +10619,7 @@
         <v>0</v>
       </c>
       <c r="BE24" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF24" s="9">
         <v>2301006</v>
@@ -11014,7 +11015,7 @@
         <v>0</v>
       </c>
       <c r="BE25" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF25" s="9">
         <v>2301001</v>
@@ -11410,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="BE26" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF26" s="9">
         <v>2301005</v>
@@ -11806,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="BE27" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF27" s="9">
         <v>2301006</v>
@@ -12202,7 +12203,7 @@
         <v>0</v>
       </c>
       <c r="BE28" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF28" s="9">
         <v>2301007</v>
@@ -12598,7 +12599,7 @@
         <v>0</v>
       </c>
       <c r="BE29" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF29" s="9">
         <v>2301008</v>
@@ -12994,7 +12995,7 @@
         <v>0</v>
       </c>
       <c r="BE30" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF30" s="9">
         <v>2301009</v>
@@ -13390,7 +13391,7 @@
         <v>0</v>
       </c>
       <c r="BE31" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF31" s="9">
         <v>2301010</v>
@@ -13786,7 +13787,7 @@
         <v>0</v>
       </c>
       <c r="BE32" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF32" s="9">
         <v>2301001</v>
@@ -14182,7 +14183,7 @@
         <v>0</v>
       </c>
       <c r="BE33" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF33" s="9">
         <v>2301004</v>
@@ -14578,7 +14579,7 @@
         <v>0</v>
       </c>
       <c r="BE34" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF34" s="9">
         <v>2301011</v>
@@ -15370,7 +15371,7 @@
         <v>0</v>
       </c>
       <c r="BE36" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF36" s="9">
         <v>2301010</v>
@@ -15766,7 +15767,7 @@
         <v>0</v>
       </c>
       <c r="BE37" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF37" s="9">
         <v>2301013</v>
@@ -16162,7 +16163,7 @@
         <v>0</v>
       </c>
       <c r="BE38" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF38" s="9">
         <v>2301014</v>
@@ -16954,7 +16955,7 @@
         <v>0</v>
       </c>
       <c r="BE40" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF40" s="9">
         <v>2301008</v>
@@ -17350,7 +17351,7 @@
         <v>0</v>
       </c>
       <c r="BE41" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF41" s="9">
         <v>2301010</v>
@@ -17746,7 +17747,7 @@
         <v>0</v>
       </c>
       <c r="BE42" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF42" s="9">
         <v>2301011</v>
@@ -18142,7 +18143,7 @@
         <v>0</v>
       </c>
       <c r="BE43" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF43" s="9">
         <v>2301002</v>
@@ -18538,7 +18539,7 @@
         <v>0</v>
       </c>
       <c r="BE44" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF44" s="9">
         <v>2301008</v>
@@ -19330,7 +19331,7 @@
         <v>0</v>
       </c>
       <c r="BE46" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF46" s="9">
         <v>2301006</v>
@@ -20122,7 +20123,7 @@
         <v>0</v>
       </c>
       <c r="BE48" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF48" s="9">
         <v>2301011</v>
@@ -20914,7 +20915,7 @@
         <v>0</v>
       </c>
       <c r="BE50" s="9">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="BF50" s="9">
         <v>2301012</v>

--- a/Unity/Assets/Config/Excel/PetConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PetConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52266755-A7E1-474C-AE21-6CB30AE99CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB6D7F4-E830-47FE-9096-FC228BFA8083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,7 +121,25 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>：神兽</t>
+          <t xml:space="preserve">：神兽
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>99:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>不显示备用数据</t>
         </r>
       </text>
     </comment>
@@ -2744,30 +2762,29 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="11" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.125" style="3" customWidth="1"/>
-    <col min="5" max="7" width="11.875" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20" style="3" hidden="1" customWidth="1"/>
-    <col min="9" max="13" width="11.875" style="3" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="15.625" style="3" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="16.125" style="3" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="12.375" style="3" hidden="1" customWidth="1"/>
-    <col min="18" max="25" width="13.125" style="3" hidden="1" customWidth="1"/>
-    <col min="26" max="27" width="18" style="3" hidden="1" customWidth="1"/>
-    <col min="28" max="29" width="20" style="3" hidden="1" customWidth="1"/>
-    <col min="30" max="49" width="15.625" style="3" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="13.375" style="3" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="10.375" style="3" hidden="1" customWidth="1"/>
-    <col min="52" max="53" width="11.375" style="3" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="10.375" style="3" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="13.125" style="3" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="15.125" style="3" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="15.125" style="3" customWidth="1"/>
+    <col min="5" max="7" width="11.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20" style="3" customWidth="1"/>
+    <col min="9" max="13" width="11.875" style="3" customWidth="1"/>
+    <col min="14" max="15" width="15.625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="16.125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="12.375" style="3" customWidth="1"/>
+    <col min="18" max="25" width="13.125" style="3" customWidth="1"/>
+    <col min="26" max="27" width="18" style="3" customWidth="1"/>
+    <col min="28" max="29" width="20" style="3" customWidth="1"/>
+    <col min="30" max="49" width="15.625" style="3" customWidth="1"/>
+    <col min="50" max="50" width="13.375" style="3" customWidth="1"/>
+    <col min="51" max="51" width="10.375" style="3" customWidth="1"/>
+    <col min="52" max="53" width="11.375" style="3" customWidth="1"/>
+    <col min="54" max="54" width="10.375" style="3" customWidth="1"/>
+    <col min="55" max="55" width="13.125" style="3" customWidth="1"/>
+    <col min="56" max="57" width="15.125" style="3" customWidth="1"/>
     <col min="58" max="58" width="25.75" style="3" customWidth="1"/>
     <col min="59" max="59" width="35.375" style="3" customWidth="1"/>
     <col min="60" max="61" width="25.5" style="3" customWidth="1"/>
@@ -4139,7 +4156,7 @@
         <v>116</v>
       </c>
       <c r="I8" s="9">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="J8" s="9">
         <v>1</v>
